--- a/BackTest/2019-10-16 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-16 BackTest LAMB.xlsx
@@ -993,7 +993,9 @@
       <c r="J12" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>38.46153846153855</v>
+      </c>
       <c r="L12" t="n">
         <v>40.7</v>
       </c>
@@ -1048,7 +1050,9 @@
       <c r="J13" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>38.46153846153855</v>
+      </c>
       <c r="L13" t="n">
         <v>40.75</v>
       </c>
@@ -1103,7 +1107,9 @@
       <c r="J14" t="n">
         <v>1.399999999999999</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L14" t="n">
         <v>40.81</v>
       </c>
@@ -1158,7 +1164,9 @@
       <c r="J15" t="n">
         <v>1.399999999999999</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>27.27272727272715</v>
+      </c>
       <c r="L15" t="n">
         <v>40.85</v>
       </c>
@@ -1209,7 +1217,9 @@
       <c r="J16" t="n">
         <v>1.399999999999999</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>27.27272727272715</v>
+      </c>
       <c r="L16" t="n">
         <v>40.88</v>
       </c>
@@ -1260,7 +1270,9 @@
       <c r="J17" t="n">
         <v>1.600000000000001</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>40.89</v>
       </c>
@@ -1311,7 +1323,9 @@
       <c r="J18" t="n">
         <v>1.900000000000006</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>49.99999999999971</v>
+      </c>
       <c r="L18" t="n">
         <v>40.92</v>
       </c>
@@ -1362,7 +1376,9 @@
       <c r="J19" t="n">
         <v>2.000000000000007</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>40.97000000000001</v>
       </c>
@@ -1413,7 +1429,9 @@
       <c r="J20" t="n">
         <v>2.100000000000009</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>11.11111111111111</v>
+      </c>
       <c r="L20" t="n">
         <v>40.98</v>
       </c>
@@ -1464,7 +1482,9 @@
       <c r="J21" t="n">
         <v>2.100000000000009</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>25</v>
+      </c>
       <c r="L21" t="n">
         <v>40.99000000000001</v>
       </c>
@@ -1517,7 +1537,9 @@
       <c r="J22" t="n">
         <v>2.20000000000001</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>11.11111111111111</v>
+      </c>
       <c r="L22" t="n">
         <v>41.00000000000001</v>
       </c>
@@ -1571,7 +1593,7 @@
         <v>2.20000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>27.27272727272722</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>41.01000000000001</v>
@@ -1620,7 +1642,7 @@
         <v>2.300000000000011</v>
       </c>
       <c r="K24" t="n">
-        <v>21.7391304347825</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L24" t="n">
         <v>41.00000000000001</v>
@@ -1669,7 +1691,7 @@
         <v>2.400000000000013</v>
       </c>
       <c r="K25" t="n">
-        <v>9.090909090908857</v>
+        <v>-20</v>
       </c>
       <c r="L25" t="n">
         <v>40.98000000000001</v>
@@ -1718,7 +1740,7 @@
         <v>2.600000000000016</v>
       </c>
       <c r="K26" t="n">
-        <v>13.04347826086938</v>
+        <v>20</v>
       </c>
       <c r="L26" t="n">
         <v>40.98000000000001</v>
@@ -1767,7 +1789,7 @@
         <v>2.600000000000016</v>
       </c>
       <c r="K27" t="n">
-        <v>13.04347826086938</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L27" t="n">
         <v>41.00000000000001</v>
@@ -1816,7 +1838,7 @@
         <v>2.700000000000017</v>
       </c>
       <c r="K28" t="n">
-        <v>13.04347826086964</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L28" t="n">
         <v>41.00000000000001</v>
@@ -1865,7 +1887,7 @@
         <v>2.700000000000017</v>
       </c>
       <c r="K29" t="n">
-        <v>29.99999999999975</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>41.01000000000001</v>
@@ -1914,7 +1936,7 @@
         <v>2.700000000000017</v>
       </c>
       <c r="K30" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>41.01000000000001</v>
@@ -1963,7 +1985,7 @@
         <v>2.700000000000017</v>
       </c>
       <c r="K31" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L31" t="n">
         <v>41.01000000000001</v>
@@ -2014,7 +2036,7 @@
         <v>2.800000000000018</v>
       </c>
       <c r="K32" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>41.01000000000001</v>
@@ -2065,7 +2087,7 @@
         <v>2.90000000000002</v>
       </c>
       <c r="K33" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>41.02000000000002</v>
@@ -2116,7 +2138,7 @@
         <v>2.90000000000002</v>
       </c>
       <c r="K34" t="n">
-        <v>6.666666666666667</v>
+        <v>60</v>
       </c>
       <c r="L34" t="n">
         <v>41.04000000000002</v>
@@ -2167,7 +2189,7 @@
         <v>2.90000000000002</v>
       </c>
       <c r="K35" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L35" t="n">
         <v>41.07000000000002</v>
@@ -2218,7 +2240,7 @@
         <v>2.90000000000002</v>
       </c>
       <c r="K36" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L36" t="n">
         <v>41.08000000000003</v>
@@ -2269,7 +2291,7 @@
         <v>3.100000000000016</v>
       </c>
       <c r="K37" t="n">
-        <v>33.33333333333302</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L37" t="n">
         <v>41.11000000000003</v>
@@ -2320,7 +2342,7 @@
         <v>3.200000000000017</v>
       </c>
       <c r="K38" t="n">
-        <v>23.07692307692266</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L38" t="n">
         <v>41.14000000000002</v>
@@ -2371,7 +2393,7 @@
         <v>3.600000000000016</v>
       </c>
       <c r="K39" t="n">
-        <v>49.99999999999956</v>
+        <v>77.77777777777743</v>
       </c>
       <c r="L39" t="n">
         <v>41.21000000000002</v>
@@ -2422,7 +2444,7 @@
         <v>3.700000000000017</v>
       </c>
       <c r="K40" t="n">
-        <v>49.99999999999956</v>
+        <v>79.99999999999972</v>
       </c>
       <c r="L40" t="n">
         <v>41.29000000000001</v>
@@ -2473,7 +2495,7 @@
         <v>3.90000000000002</v>
       </c>
       <c r="K41" t="n">
-        <v>55.5555555555552</v>
+        <v>100</v>
       </c>
       <c r="L41" t="n">
         <v>41.39000000000001</v>
@@ -2524,7 +2546,7 @@
         <v>4.100000000000016</v>
       </c>
       <c r="K42" t="n">
-        <v>68.42105263157859</v>
+        <v>100</v>
       </c>
       <c r="L42" t="n">
         <v>41.52000000000002</v>
@@ -2575,7 +2597,7 @@
         <v>4.300000000000011</v>
       </c>
       <c r="K43" t="n">
-        <v>52.38095238095242</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L43" t="n">
         <v>41.62000000000002</v>
@@ -2626,7 +2648,7 @@
         <v>4.300000000000011</v>
       </c>
       <c r="K44" t="n">
-        <v>60.00000000000014</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L44" t="n">
         <v>41.72000000000001</v>
@@ -2677,7 +2699,7 @@
         <v>4.800000000000011</v>
       </c>
       <c r="K45" t="n">
-        <v>33.33333333333353</v>
+        <v>26.31578947368433</v>
       </c>
       <c r="L45" t="n">
         <v>41.77000000000002</v>
@@ -2728,7 +2750,7 @@
         <v>5.100000000000009</v>
       </c>
       <c r="K46" t="n">
-        <v>36.00000000000004</v>
+        <v>30.00000000000018</v>
       </c>
       <c r="L46" t="n">
         <v>41.85000000000001</v>
@@ -2779,7 +2801,7 @@
         <v>5.100000000000009</v>
       </c>
       <c r="K47" t="n">
-        <v>36.00000000000004</v>
+        <v>26.31578947368433</v>
       </c>
       <c r="L47" t="n">
         <v>41.91000000000001</v>
@@ -2830,7 +2852,7 @@
         <v>5.20000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>27.99999999999991</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>41.95000000000001</v>
@@ -2881,7 +2903,7 @@
         <v>5.20000000000001</v>
       </c>
       <c r="K49" t="n">
-        <v>27.99999999999991</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L49" t="n">
         <v>41.95000000000001</v>
@@ -2932,7 +2954,7 @@
         <v>5.400000000000013</v>
       </c>
       <c r="K50" t="n">
-        <v>33.33333333333333</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L50" t="n">
         <v>41.96000000000002</v>
@@ -2983,7 +3005,7 @@
         <v>5.400000000000013</v>
       </c>
       <c r="K51" t="n">
-        <v>33.33333333333333</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L51" t="n">
         <v>41.95000000000001</v>
@@ -3034,7 +3056,7 @@
         <v>5.400000000000013</v>
       </c>
       <c r="K52" t="n">
-        <v>38.46153846153855</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L52" t="n">
         <v>41.92000000000001</v>
@@ -3085,7 +3107,7 @@
         <v>5.400000000000013</v>
       </c>
       <c r="K53" t="n">
-        <v>36.00000000000004</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L53" t="n">
         <v>41.91000000000001</v>
@@ -3136,7 +3158,7 @@
         <v>5.400000000000013</v>
       </c>
       <c r="K54" t="n">
-        <v>36.00000000000004</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L54" t="n">
         <v>41.90000000000001</v>
@@ -3187,7 +3209,7 @@
         <v>5.600000000000016</v>
       </c>
       <c r="K55" t="n">
-        <v>40.74074074074085</v>
+        <v>60</v>
       </c>
       <c r="L55" t="n">
         <v>41.96</v>
@@ -3238,7 +3260,7 @@
         <v>5.600000000000016</v>
       </c>
       <c r="K56" t="n">
-        <v>40.74074074074085</v>
+        <v>60</v>
       </c>
       <c r="L56" t="n">
         <v>41.99</v>
@@ -3289,7 +3311,7 @@
         <v>5.800000000000018</v>
       </c>
       <c r="K57" t="n">
-        <v>25.925925925926</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L57" t="n">
         <v>42.00000000000001</v>
@@ -3340,7 +3362,7 @@
         <v>5.90000000000002</v>
       </c>
       <c r="K58" t="n">
-        <v>18.5185185185185</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L58" t="n">
         <v>42.01000000000001</v>
@@ -3391,7 +3413,7 @@
         <v>6.200000000000024</v>
       </c>
       <c r="K59" t="n">
-        <v>15.38461538461555</v>
+        <v>25</v>
       </c>
       <c r="L59" t="n">
         <v>42.05</v>
@@ -3442,7 +3464,7 @@
         <v>6.500000000000028</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L60" t="n">
         <v>42.04</v>
@@ -3493,7 +3515,7 @@
         <v>6.60000000000003</v>
       </c>
       <c r="K61" t="n">
-        <v>-11.11111111111123</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L61" t="n">
         <v>42.02</v>
@@ -3544,7 +3566,7 @@
         <v>6.60000000000003</v>
       </c>
       <c r="K62" t="n">
-        <v>-19.99999999999989</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L62" t="n">
         <v>42</v>
@@ -3595,7 +3617,7 @@
         <v>6.900000000000027</v>
       </c>
       <c r="K63" t="n">
-        <v>-23.07692307692299</v>
+        <v>-33.33333333333302</v>
       </c>
       <c r="L63" t="n">
         <v>41.95</v>
@@ -3646,7 +3668,7 @@
         <v>7.200000000000024</v>
       </c>
       <c r="K64" t="n">
-        <v>-10.344827586207</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L64" t="n">
         <v>41.93</v>
@@ -3697,7 +3719,7 @@
         <v>8.200000000000024</v>
       </c>
       <c r="K65" t="n">
-        <v>-23.52941176470592</v>
+        <v>-53.84615384615389</v>
       </c>
       <c r="L65" t="n">
         <v>41.79000000000001</v>
@@ -3748,7 +3770,7 @@
         <v>9.000000000000028</v>
       </c>
       <c r="K66" t="n">
-        <v>-7.692307692307581</v>
+        <v>-12.49999999999992</v>
       </c>
       <c r="L66" t="n">
         <v>41.73</v>
@@ -3799,7 +3821,7 @@
         <v>9.200000000000031</v>
       </c>
       <c r="K67" t="n">
-        <v>-12.19512195121944</v>
+        <v>-15.1515151515151</v>
       </c>
       <c r="L67" t="n">
         <v>41.67</v>
@@ -3850,7 +3872,7 @@
         <v>9.200000000000031</v>
       </c>
       <c r="K68" t="n">
-        <v>-9.999999999999911</v>
+        <v>-26.66666666666674</v>
       </c>
       <c r="L68" t="n">
         <v>41.62</v>
@@ -3901,7 +3923,7 @@
         <v>9.400000000000034</v>
       </c>
       <c r="K69" t="n">
-        <v>-4.761904761904633</v>
+        <v>-10.34482758620678</v>
       </c>
       <c r="L69" t="n">
         <v>41.56000000000001</v>
@@ -3952,7 +3974,7 @@
         <v>9.600000000000037</v>
       </c>
       <c r="K70" t="n">
-        <v>-14.28571428571424</v>
+        <v>-13.33333333333326</v>
       </c>
       <c r="L70" t="n">
         <v>41.51000000000001</v>
@@ -4003,7 +4025,7 @@
         <v>9.80000000000004</v>
       </c>
       <c r="K71" t="n">
-        <v>-9.090909090909003</v>
+        <v>-6.249999999999847</v>
       </c>
       <c r="L71" t="n">
         <v>41.49000000000001</v>
@@ -4054,7 +4076,7 @@
         <v>9.80000000000004</v>
       </c>
       <c r="K72" t="n">
-        <v>-9.090909090909003</v>
+        <v>3.448275862068999</v>
       </c>
       <c r="L72" t="n">
         <v>41.47000000000001</v>
@@ -4105,7 +4127,7 @@
         <v>10.00000000000004</v>
       </c>
       <c r="K73" t="n">
-        <v>-13.04347826086951</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L73" t="n">
         <v>41.46000000000001</v>
@@ -4156,7 +4178,7 @@
         <v>10.10000000000004</v>
       </c>
       <c r="K74" t="n">
-        <v>-14.89361702127656</v>
+        <v>26.31578947368394</v>
       </c>
       <c r="L74" t="n">
         <v>41.41000000000001</v>
@@ -4207,7 +4229,7 @@
         <v>10.50000000000004</v>
       </c>
       <c r="K75" t="n">
-        <v>-26.5306122448979</v>
+        <v>-46.66666666666642</v>
       </c>
       <c r="L75" t="n">
         <v>41.42</v>
@@ -4258,7 +4280,7 @@
         <v>10.90000000000004</v>
       </c>
       <c r="K76" t="n">
-        <v>-16.98113207547172</v>
+        <v>-5.88235294117652</v>
       </c>
       <c r="L76" t="n">
         <v>41.39</v>
@@ -4309,7 +4331,7 @@
         <v>11.40000000000004</v>
       </c>
       <c r="K77" t="n">
-        <v>-21.42857142857139</v>
+        <v>-27.27272727272722</v>
       </c>
       <c r="L77" t="n">
         <v>41.33000000000001</v>
@@ -4360,7 +4382,7 @@
         <v>12.00000000000004</v>
       </c>
       <c r="K78" t="n">
-        <v>-8.196721311475379</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L78" t="n">
         <v>41.33000000000001</v>
@@ -4411,7 +4433,7 @@
         <v>12.00000000000004</v>
       </c>
       <c r="K79" t="n">
-        <v>-13.79310344827589</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>41.31</v>
@@ -4462,7 +4484,7 @@
         <v>12.00000000000004</v>
       </c>
       <c r="K80" t="n">
-        <v>-9.090909090909067</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L80" t="n">
         <v>41.31</v>
@@ -4513,7 +4535,7 @@
         <v>12.00000000000004</v>
       </c>
       <c r="K81" t="n">
-        <v>-7.407407407407364</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L81" t="n">
         <v>41.29</v>
@@ -4564,7 +4586,7 @@
         <v>12.20000000000004</v>
       </c>
       <c r="K82" t="n">
-        <v>-10.7142857142856</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L82" t="n">
         <v>41.24999999999999</v>
@@ -4615,7 +4637,7 @@
         <v>12.30000000000003</v>
       </c>
       <c r="K83" t="n">
-        <v>-3.703703703703753</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>41.23999999999999</v>
@@ -4666,7 +4688,7 @@
         <v>12.40000000000003</v>
       </c>
       <c r="K84" t="n">
-        <v>-7.69230769230765</v>
+        <v>26.31578947368433</v>
       </c>
       <c r="L84" t="n">
         <v>41.24999999999999</v>
@@ -4717,7 +4739,7 @@
         <v>12.40000000000003</v>
       </c>
       <c r="K85" t="n">
-        <v>14.28571428571428</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L85" t="n">
         <v>41.3</v>
@@ -4768,7 +4790,7 @@
         <v>12.80000000000003</v>
       </c>
       <c r="K86" t="n">
-        <v>-15.78947368421055</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L86" t="n">
         <v>41.27</v>
@@ -4819,7 +4841,7 @@
         <v>12.90000000000003</v>
       </c>
       <c r="K87" t="n">
-        <v>-13.5135135135135</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L87" t="n">
         <v>41.27999999999999</v>
@@ -4870,7 +4892,7 @@
         <v>13.30000000000003</v>
       </c>
       <c r="K88" t="n">
-        <v>-2.439024390243936</v>
+        <v>-7.69230769230786</v>
       </c>
       <c r="L88" t="n">
         <v>41.27</v>
@@ -4921,7 +4943,7 @@
         <v>13.70000000000003</v>
       </c>
       <c r="K89" t="n">
-        <v>-16.27906976744194</v>
+        <v>-29.41176470588255</v>
       </c>
       <c r="L89" t="n">
         <v>41.21999999999999</v>
@@ -4972,7 +4994,7 @@
         <v>13.80000000000003</v>
       </c>
       <c r="K90" t="n">
-        <v>-9.523809523809499</v>
+        <v>-22.22222222222226</v>
       </c>
       <c r="L90" t="n">
         <v>41.17999999999999</v>
@@ -5023,7 +5045,7 @@
         <v>14.20000000000003</v>
       </c>
       <c r="K91" t="n">
-        <v>-22.72727272727277</v>
+        <v>-30.00000000000018</v>
       </c>
       <c r="L91" t="n">
         <v>41.1</v>
@@ -5074,7 +5096,7 @@
         <v>14.30000000000003</v>
       </c>
       <c r="K92" t="n">
-        <v>-24.44444444444452</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L92" t="n">
         <v>41.03</v>
@@ -5125,7 +5147,7 @@
         <v>14.40000000000003</v>
       </c>
       <c r="K93" t="n">
-        <v>-22.72727272727277</v>
+        <v>-50</v>
       </c>
       <c r="L93" t="n">
         <v>40.94</v>
@@ -5176,7 +5198,7 @@
         <v>14.50000000000004</v>
       </c>
       <c r="K94" t="n">
-        <v>-22.72727272727277</v>
+        <v>-52.38095238095242</v>
       </c>
       <c r="L94" t="n">
         <v>40.83</v>
@@ -5227,7 +5249,7 @@
         <v>14.60000000000003</v>
       </c>
       <c r="K95" t="n">
-        <v>-17.07317073170726</v>
+        <v>-44.44444444444436</v>
       </c>
       <c r="L95" t="n">
         <v>40.71</v>
@@ -5278,7 +5300,7 @@
         <v>14.70000000000003</v>
       </c>
       <c r="K96" t="n">
-        <v>-31.57894736842102</v>
+        <v>-44.44444444444436</v>
       </c>
       <c r="L96" t="n">
         <v>40.62</v>
@@ -5329,7 +5351,7 @@
         <v>14.80000000000003</v>
       </c>
       <c r="K97" t="n">
-        <v>-17.64705882352929</v>
+        <v>-73.33333333333294</v>
       </c>
       <c r="L97" t="n">
         <v>40.55</v>
@@ -5380,7 +5402,7 @@
         <v>14.80000000000003</v>
       </c>
       <c r="K98" t="n">
-        <v>-42.85714285714285</v>
+        <v>-63.63636363636317</v>
       </c>
       <c r="L98" t="n">
         <v>40.44</v>
@@ -5431,7 +5453,7 @@
         <v>14.80000000000003</v>
       </c>
       <c r="K99" t="n">
-        <v>-42.85714285714285</v>
+        <v>-79.99999999999972</v>
       </c>
       <c r="L99" t="n">
         <v>40.37</v>
@@ -5482,7 +5504,7 @@
         <v>15.20000000000004</v>
       </c>
       <c r="K100" t="n">
-        <v>-50.00000000000011</v>
+        <v>-79.99999999999986</v>
       </c>
       <c r="L100" t="n">
         <v>40.25000000000001</v>
@@ -5533,7 +5555,7 @@
         <v>15.20000000000004</v>
       </c>
       <c r="K101" t="n">
-        <v>-50.00000000000011</v>
+        <v>-77.7777777777776</v>
       </c>
       <c r="L101" t="n">
         <v>40.17</v>
@@ -5584,7 +5606,7 @@
         <v>15.30000000000004</v>
       </c>
       <c r="K102" t="n">
-        <v>-41.93548387096786</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L102" t="n">
         <v>40.11</v>
@@ -5635,7 +5657,7 @@
         <v>15.60000000000004</v>
       </c>
       <c r="K103" t="n">
-        <v>-51.51515151515132</v>
+        <v>-63.63636363636317</v>
       </c>
       <c r="L103" t="n">
         <v>40.03000000000001</v>
@@ -5686,7 +5708,7 @@
         <v>15.60000000000004</v>
       </c>
       <c r="K104" t="n">
-        <v>-56.24999999999986</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L104" t="n">
         <v>39.96000000000001</v>
@@ -5737,7 +5759,7 @@
         <v>15.60000000000004</v>
       </c>
       <c r="K105" t="n">
-        <v>-56.24999999999986</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L105" t="n">
         <v>39.90000000000001</v>
@@ -5788,7 +5810,7 @@
         <v>15.70000000000004</v>
       </c>
       <c r="K106" t="n">
-        <v>-51.72413793103438</v>
+        <v>-77.7777777777776</v>
       </c>
       <c r="L106" t="n">
         <v>39.84000000000001</v>
@@ -5839,7 +5861,7 @@
         <v>15.80000000000004</v>
       </c>
       <c r="K107" t="n">
-        <v>-51.72413793103438</v>
+        <v>-79.99999999999986</v>
       </c>
       <c r="L107" t="n">
         <v>39.76000000000001</v>
@@ -5890,7 +5912,7 @@
         <v>16.20000000000004</v>
       </c>
       <c r="K108" t="n">
-        <v>-51.72413793103438</v>
+        <v>-28.57142857142886</v>
       </c>
       <c r="L108" t="n">
         <v>39.72000000000001</v>
@@ -5941,7 +5963,7 @@
         <v>16.20000000000004</v>
       </c>
       <c r="K109" t="n">
-        <v>-43.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>39.68000000000001</v>
@@ -5992,7 +6014,7 @@
         <v>16.30000000000004</v>
       </c>
       <c r="K110" t="n">
-        <v>-43.99999999999994</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L110" t="n">
         <v>39.69000000000001</v>
@@ -6043,7 +6065,7 @@
         <v>16.70000000000004</v>
       </c>
       <c r="K111" t="n">
-        <v>-43.99999999999994</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L111" t="n">
         <v>39.66000000000001</v>
@@ -6094,7 +6116,7 @@
         <v>16.90000000000004</v>
       </c>
       <c r="K112" t="n">
-        <v>-30.76923076923056</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L112" t="n">
         <v>39.64000000000001</v>
@@ -6145,7 +6167,7 @@
         <v>17.10000000000004</v>
       </c>
       <c r="K113" t="n">
-        <v>-18.5185185185185</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L113" t="n">
         <v>39.67</v>
@@ -6196,7 +6218,7 @@
         <v>17.50000000000004</v>
       </c>
       <c r="K114" t="n">
-        <v>-26.66666666666657</v>
+        <v>-5.263157894736921</v>
       </c>
       <c r="L114" t="n">
         <v>39.66</v>
@@ -6247,7 +6269,7 @@
         <v>17.60000000000004</v>
       </c>
       <c r="K115" t="n">
-        <v>-26.66666666666674</v>
+        <v>-5.263157894736921</v>
       </c>
       <c r="L115" t="n">
         <v>39.64</v>
@@ -6298,7 +6320,7 @@
         <v>17.70000000000004</v>
       </c>
       <c r="K116" t="n">
-        <v>-20</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L116" t="n">
         <v>39.64</v>
@@ -6349,7 +6371,7 @@
         <v>17.70000000000004</v>
       </c>
       <c r="K117" t="n">
-        <v>-24.13793103448281</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L117" t="n">
         <v>39.65</v>
@@ -6400,7 +6422,7 @@
         <v>18.00000000000004</v>
       </c>
       <c r="K118" t="n">
-        <v>-12.50000000000017</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>39.65</v>
@@ -6451,7 +6473,7 @@
         <v>18.00000000000004</v>
       </c>
       <c r="K119" t="n">
-        <v>-12.50000000000017</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L119" t="n">
         <v>39.65</v>
@@ -6502,7 +6524,7 @@
         <v>18.10000000000004</v>
       </c>
       <c r="K120" t="n">
-        <v>3.448275862069016</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L120" t="n">
         <v>39.65</v>
@@ -6553,7 +6575,7 @@
         <v>18.60000000000004</v>
       </c>
       <c r="K121" t="n">
-        <v>-11.7647058823529</v>
+        <v>-17.64705882352971</v>
       </c>
       <c r="L121" t="n">
         <v>39.64</v>
@@ -6604,7 +6626,7 @@
         <v>19.00000000000004</v>
       </c>
       <c r="K122" t="n">
-        <v>-2.702702702702744</v>
+        <v>-5.263157894736921</v>
       </c>
       <c r="L122" t="n">
         <v>39.65</v>
@@ -6655,7 +6677,7 @@
         <v>19.10000000000004</v>
       </c>
       <c r="K123" t="n">
-        <v>8.571428571428489</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L123" t="n">
         <v>39.65</v>
@@ -6706,7 +6728,7 @@
         <v>19.20000000000004</v>
       </c>
       <c r="K124" t="n">
-        <v>5.555555555555435</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L124" t="n">
         <v>39.68</v>
@@ -6757,7 +6779,7 @@
         <v>19.20000000000004</v>
       </c>
       <c r="K125" t="n">
-        <v>5.555555555555435</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L125" t="n">
         <v>39.72000000000001</v>
@@ -6808,7 +6830,7 @@
         <v>19.30000000000003</v>
       </c>
       <c r="K126" t="n">
-        <v>5.555555555555643</v>
+        <v>12.50000000000022</v>
       </c>
       <c r="L126" t="n">
         <v>39.74</v>
@@ -6859,7 +6881,7 @@
         <v>19.50000000000004</v>
       </c>
       <c r="K127" t="n">
-        <v>2.702702702702744</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L127" t="n">
         <v>39.74</v>
@@ -6961,7 +6983,7 @@
         <v>20.10000000000003</v>
       </c>
       <c r="K129" t="n">
-        <v>-7.692307692307636</v>
+        <v>-20</v>
       </c>
       <c r="L129" t="n">
         <v>39.71</v>
@@ -7012,7 +7034,7 @@
         <v>20.10000000000003</v>
       </c>
       <c r="K130" t="n">
-        <v>-10.52631578947367</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L130" t="n">
         <v>39.67</v>
@@ -7063,7 +7085,7 @@
         <v>20.10000000000003</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L131" t="n">
         <v>39.68000000000001</v>
@@ -7114,7 +7136,7 @@
         <v>20.10000000000003</v>
       </c>
       <c r="K132" t="n">
-        <v>-6.250000000000111</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L132" t="n">
         <v>39.65000000000001</v>
@@ -7165,7 +7187,7 @@
         <v>20.10000000000003</v>
       </c>
       <c r="K133" t="n">
-        <v>-13.33333333333332</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L133" t="n">
         <v>39.61000000000001</v>
@@ -7216,7 +7238,7 @@
         <v>20.20000000000003</v>
       </c>
       <c r="K134" t="n">
-        <v>-3.703703703703762</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L134" t="n">
         <v>39.57000000000001</v>
@@ -7267,7 +7289,7 @@
         <v>20.50000000000004</v>
       </c>
       <c r="K135" t="n">
-        <v>10.34482758620705</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
         <v>39.56</v>
@@ -7318,7 +7340,7 @@
         <v>20.60000000000004</v>
       </c>
       <c r="K136" t="n">
-        <v>3.448275862069016</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L136" t="n">
         <v>39.55</v>
@@ -7369,7 +7391,7 @@
         <v>20.60000000000004</v>
       </c>
       <c r="K137" t="n">
-        <v>3.448275862069016</v>
+        <v>-24.99999999999933</v>
       </c>
       <c r="L137" t="n">
         <v>39.56000000000001</v>
@@ -7420,7 +7442,7 @@
         <v>20.60000000000004</v>
       </c>
       <c r="K138" t="n">
-        <v>-7.692307692307525</v>
+        <v>20</v>
       </c>
       <c r="L138" t="n">
         <v>39.54000000000001</v>
@@ -7471,7 +7493,7 @@
         <v>20.60000000000004</v>
       </c>
       <c r="K139" t="n">
-        <v>-7.692307692307525</v>
+        <v>20</v>
       </c>
       <c r="L139" t="n">
         <v>39.55000000000001</v>
@@ -7522,7 +7544,7 @@
         <v>20.60000000000004</v>
       </c>
       <c r="K140" t="n">
-        <v>-11.99999999999989</v>
+        <v>20</v>
       </c>
       <c r="L140" t="n">
         <v>39.56000000000002</v>
@@ -7573,7 +7595,7 @@
         <v>20.80000000000004</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L141" t="n">
         <v>39.55000000000001</v>
@@ -7624,7 +7646,7 @@
         <v>21.00000000000004</v>
       </c>
       <c r="K142" t="n">
-        <v>-9.999999999999751</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L142" t="n">
         <v>39.56000000000002</v>
@@ -7675,7 +7697,7 @@
         <v>21.20000000000004</v>
       </c>
       <c r="K143" t="n">
-        <v>-4.761904761904826</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L143" t="n">
         <v>39.59000000000002</v>
@@ -7726,7 +7748,7 @@
         <v>21.60000000000004</v>
       </c>
       <c r="K144" t="n">
-        <v>-16.66666666666662</v>
+        <v>-27.27272727272763</v>
       </c>
       <c r="L144" t="n">
         <v>39.59000000000002</v>
@@ -7777,7 +7799,7 @@
         <v>21.90000000000004</v>
       </c>
       <c r="K145" t="n">
-        <v>-3.703703703703489</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L145" t="n">
         <v>39.59000000000002</v>
@@ -7828,7 +7850,7 @@
         <v>22.20000000000005</v>
       </c>
       <c r="K146" t="n">
-        <v>-10.344827586207</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L146" t="n">
         <v>39.57000000000001</v>
@@ -7879,7 +7901,7 @@
         <v>22.40000000000005</v>
       </c>
       <c r="K147" t="n">
-        <v>3.448275862068999</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
         <v>39.57000000000001</v>
@@ -7930,7 +7952,7 @@
         <v>22.50000000000005</v>
       </c>
       <c r="K148" t="n">
-        <v>-3.70370370370347</v>
+        <v>5.263157894736882</v>
       </c>
       <c r="L148" t="n">
         <v>39.58000000000001</v>
@@ -7981,7 +8003,7 @@
         <v>22.70000000000005</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>-4.761904761904794</v>
       </c>
       <c r="L149" t="n">
         <v>39.57000000000001</v>
@@ -8032,7 +8054,7 @@
         <v>23.10000000000005</v>
       </c>
       <c r="K150" t="n">
-        <v>13.33333333333319</v>
+        <v>21.7391304347825</v>
       </c>
       <c r="L150" t="n">
         <v>39.6</v>
@@ -8083,7 +8105,7 @@
         <v>23.50000000000005</v>
       </c>
       <c r="K151" t="n">
-        <v>0</v>
+        <v>-4.000000000000045</v>
       </c>
       <c r="L151" t="n">
         <v>39.61</v>
@@ -8134,7 +8156,7 @@
         <v>23.70000000000005</v>
       </c>
       <c r="K152" t="n">
-        <v>5.5555555555556</v>
+        <v>-3.99999999999975</v>
       </c>
       <c r="L152" t="n">
         <v>39.62</v>
@@ -8185,7 +8207,7 @@
         <v>23.90000000000006</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>4.347826086956549</v>
       </c>
       <c r="L153" t="n">
         <v>39.59</v>
@@ -8236,7 +8258,7 @@
         <v>24.20000000000005</v>
       </c>
       <c r="K154" t="n">
-        <v>9.999999999999911</v>
+        <v>4.347826086956253</v>
       </c>
       <c r="L154" t="n">
         <v>39.63</v>
@@ -8287,7 +8309,7 @@
         <v>24.30000000000005</v>
       </c>
       <c r="K155" t="n">
-        <v>5.263157894736705</v>
+        <v>23.80952380952371</v>
       </c>
       <c r="L155" t="n">
         <v>39.65</v>
@@ -8338,7 +8360,7 @@
         <v>24.30000000000005</v>
       </c>
       <c r="K156" t="n">
-        <v>8.108108108107993</v>
+        <v>15.78947368421033</v>
       </c>
       <c r="L156" t="n">
         <v>39.7</v>
@@ -8389,7 +8411,7 @@
         <v>24.50000000000005</v>
       </c>
       <c r="K157" t="n">
-        <v>2.564102564102592</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>39.70999999999999</v>
@@ -8440,7 +8462,7 @@
         <v>24.70000000000005</v>
       </c>
       <c r="K158" t="n">
-        <v>7.317073170731622</v>
+        <v>20</v>
       </c>
       <c r="L158" t="n">
         <v>39.73</v>
@@ -8491,7 +8513,7 @@
         <v>24.70000000000005</v>
       </c>
       <c r="K159" t="n">
-        <v>7.317073170731622</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
         <v>39.77</v>
@@ -8542,7 +8564,7 @@
         <v>24.90000000000004</v>
       </c>
       <c r="K160" t="n">
-        <v>2.325581395348868</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L160" t="n">
         <v>39.74999999999999</v>
@@ -8593,7 +8615,7 @@
         <v>25.10000000000004</v>
       </c>
       <c r="K161" t="n">
-        <v>2.325581395348868</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L161" t="n">
         <v>39.74999999999999</v>
@@ -8644,7 +8666,7 @@
         <v>25.20000000000005</v>
       </c>
       <c r="K162" t="n">
-        <v>0</v>
+        <v>7.69230769230786</v>
       </c>
       <c r="L162" t="n">
         <v>39.73999999999999</v>
@@ -8695,7 +8717,7 @@
         <v>25.20000000000005</v>
       </c>
       <c r="K163" t="n">
-        <v>-4.999999999999885</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L163" t="n">
         <v>39.75</v>
@@ -8746,7 +8768,7 @@
         <v>25.40000000000004</v>
       </c>
       <c r="K164" t="n">
-        <v>10.52631578947364</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L164" t="n">
         <v>39.75</v>
@@ -8797,7 +8819,7 @@
         <v>25.40000000000004</v>
       </c>
       <c r="K165" t="n">
-        <v>2.857142857142695</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L165" t="n">
         <v>39.74</v>
@@ -8848,7 +8870,7 @@
         <v>25.60000000000004</v>
       </c>
       <c r="K166" t="n">
-        <v>17.64705882352946</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L166" t="n">
         <v>39.75000000000001</v>
@@ -8899,7 +8921,7 @@
         <v>25.70000000000005</v>
       </c>
       <c r="K167" t="n">
-        <v>9.090909090909012</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>39.77</v>
@@ -8950,7 +8972,7 @@
         <v>25.70000000000005</v>
       </c>
       <c r="K168" t="n">
-        <v>6.249999999999875</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
         <v>39.77</v>
@@ -9001,7 +9023,7 @@
         <v>25.70000000000005</v>
       </c>
       <c r="K169" t="n">
-        <v>13.33333333333332</v>
+        <v>24.99999999999933</v>
       </c>
       <c r="L169" t="n">
         <v>39.77</v>
@@ -9052,7 +9074,7 @@
         <v>26.10000000000004</v>
       </c>
       <c r="K170" t="n">
-        <v>-13.33333333333332</v>
+        <v>0</v>
       </c>
       <c r="L170" t="n">
         <v>39.75000000000001</v>
@@ -9103,7 +9125,7 @@
         <v>26.20000000000005</v>
       </c>
       <c r="K171" t="n">
-        <v>3.703703703703762</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>39.76000000000001</v>
@@ -9154,7 +9176,7 @@
         <v>26.40000000000004</v>
       </c>
       <c r="K172" t="n">
-        <v>3.703703703703508</v>
+        <v>16.66666666666637</v>
       </c>
       <c r="L172" t="n">
         <v>39.78000000000001</v>
@@ -9205,7 +9227,7 @@
         <v>26.60000000000004</v>
       </c>
       <c r="K173" t="n">
-        <v>3.703703703703782</v>
+        <v>-16.66666666666637</v>
       </c>
       <c r="L173" t="n">
         <v>39.78000000000001</v>
@@ -9256,7 +9278,7 @@
         <v>26.70000000000004</v>
       </c>
       <c r="K174" t="n">
-        <v>-3.999999999999795</v>
+        <v>-7.692307692307272</v>
       </c>
       <c r="L174" t="n">
         <v>39.77</v>
@@ -9307,7 +9329,7 @@
         <v>26.80000000000003</v>
       </c>
       <c r="K175" t="n">
-        <v>-4.000000000000091</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L175" t="n">
         <v>39.77</v>
@@ -9358,7 +9380,7 @@
         <v>26.80000000000003</v>
       </c>
       <c r="K176" t="n">
-        <v>-4.000000000000091</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L176" t="n">
         <v>39.75000000000001</v>
@@ -9409,7 +9431,7 @@
         <v>26.80000000000003</v>
       </c>
       <c r="K177" t="n">
-        <v>4.347826086956307</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L177" t="n">
         <v>39.74000000000001</v>
@@ -9460,7 +9482,7 @@
         <v>26.80000000000003</v>
       </c>
       <c r="K178" t="n">
-        <v>-4.761904761904859</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L178" t="n">
         <v>39.73000000000001</v>
@@ -9511,7 +9533,7 @@
         <v>26.90000000000003</v>
       </c>
       <c r="K179" t="n">
-        <v>-9.090909090908973</v>
+        <v>25.00000000000089</v>
       </c>
       <c r="L179" t="n">
         <v>39.71000000000002</v>
@@ -9562,7 +9584,7 @@
         <v>26.90000000000003</v>
       </c>
       <c r="K180" t="n">
-        <v>0</v>
+        <v>14.28571428571487</v>
       </c>
       <c r="L180" t="n">
         <v>39.73000000000001</v>
@@ -9613,7 +9635,7 @@
         <v>27.00000000000003</v>
       </c>
       <c r="K181" t="n">
-        <v>5.263157894736961</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L181" t="n">
         <v>39.73000000000001</v>
@@ -9664,7 +9686,7 @@
         <v>27.10000000000003</v>
       </c>
       <c r="K182" t="n">
-        <v>-5.263157894736961</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L182" t="n">
         <v>39.70000000000001</v>
@@ -9715,7 +9737,7 @@
         <v>27.30000000000003</v>
       </c>
       <c r="K183" t="n">
-        <v>-14.28571428571458</v>
+        <v>-66.66666666666825</v>
       </c>
       <c r="L183" t="n">
         <v>39.67000000000001</v>
@@ -9766,7 +9788,7 @@
         <v>27.40000000000003</v>
       </c>
       <c r="K184" t="n">
-        <v>-29.99999999999993</v>
+        <v>-100</v>
       </c>
       <c r="L184" t="n">
         <v>39.62000000000001</v>
@@ -9817,7 +9839,7 @@
         <v>27.60000000000002</v>
       </c>
       <c r="K185" t="n">
-        <v>-18.18181818181827</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L185" t="n">
         <v>39.58000000000001</v>
@@ -9868,7 +9890,7 @@
         <v>27.80000000000002</v>
       </c>
       <c r="K186" t="n">
-        <v>-36.36363636363666</v>
+        <v>-60.00000000000028</v>
       </c>
       <c r="L186" t="n">
         <v>39.52</v>
@@ -9919,7 +9941,7 @@
         <v>27.80000000000002</v>
       </c>
       <c r="K187" t="n">
-        <v>-33.33333333333356</v>
+        <v>-60.00000000000028</v>
       </c>
       <c r="L187" t="n">
         <v>39.46</v>
@@ -9970,7 +9992,7 @@
         <v>27.80000000000002</v>
       </c>
       <c r="K188" t="n">
-        <v>-33.33333333333356</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L188" t="n">
         <v>39.4</v>
@@ -10021,7 +10043,7 @@
         <v>27.80000000000002</v>
       </c>
       <c r="K189" t="n">
-        <v>-33.33333333333356</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L189" t="n">
         <v>39.35</v>
@@ -10072,7 +10094,7 @@
         <v>27.80000000000002</v>
       </c>
       <c r="K190" t="n">
-        <v>-17.64705882352951</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L190" t="n">
         <v>39.3</v>
@@ -10123,7 +10145,7 @@
         <v>27.90000000000001</v>
       </c>
       <c r="K191" t="n">
-        <v>-17.64705882353</v>
+        <v>-25.00000000000089</v>
       </c>
       <c r="L191" t="n">
         <v>39.27</v>
@@ -10174,7 +10196,7 @@
         <v>27.90000000000001</v>
       </c>
       <c r="K192" t="n">
-        <v>-33.33333333333396</v>
+        <v>0</v>
       </c>
       <c r="L192" t="n">
         <v>39.25</v>
@@ -10225,7 +10247,7 @@
         <v>27.90000000000001</v>
       </c>
       <c r="K193" t="n">
-        <v>-23.07692307692383</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L193" t="n">
         <v>39.25</v>
@@ -10276,7 +10298,7 @@
         <v>28.40000000000001</v>
       </c>
       <c r="K194" t="n">
-        <v>-52.94117647058937</v>
+        <v>-75.00000000000111</v>
       </c>
       <c r="L194" t="n">
         <v>39.21</v>
@@ -10327,7 +10349,7 @@
         <v>28.80000000000002</v>
       </c>
       <c r="K195" t="n">
-        <v>-29.99999999999993</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
         <v>39.19</v>
@@ -10378,7 +10400,7 @@
         <v>28.80000000000002</v>
       </c>
       <c r="K196" t="n">
-        <v>-29.99999999999993</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>39.19</v>
@@ -10429,7 +10451,7 @@
         <v>28.80000000000002</v>
       </c>
       <c r="K197" t="n">
-        <v>-29.99999999999993</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>39.19</v>
@@ -10480,7 +10502,7 @@
         <v>28.90000000000001</v>
       </c>
       <c r="K198" t="n">
-        <v>-23.80952380952404</v>
+        <v>9.090909090908621</v>
       </c>
       <c r="L198" t="n">
         <v>39.2</v>
@@ -10531,7 +10553,7 @@
         <v>28.90000000000001</v>
       </c>
       <c r="K199" t="n">
-        <v>-20.00000000000043</v>
+        <v>9.090909090908621</v>
       </c>
       <c r="L199" t="n">
         <v>39.21000000000001</v>
@@ -10582,7 +10604,7 @@
         <v>28.90000000000001</v>
       </c>
       <c r="K200" t="n">
-        <v>-20.00000000000043</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>39.22000000000001</v>
@@ -10633,7 +10655,7 @@
         <v>28.90000000000001</v>
       </c>
       <c r="K201" t="n">
-        <v>-15.78947368421088</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
         <v>39.22000000000001</v>
@@ -10684,7 +10706,7 @@
         <v>28.90000000000001</v>
       </c>
       <c r="K202" t="n">
-        <v>-11.11111111111137</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
         <v>39.22000000000001</v>
@@ -10735,7 +10757,7 @@
         <v>28.90000000000001</v>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L203" t="n">
         <v>39.22000000000001</v>
@@ -10786,7 +10808,7 @@
         <v>28.90000000000001</v>
       </c>
       <c r="K204" t="n">
-        <v>6.666666666666352</v>
+        <v>100</v>
       </c>
       <c r="L204" t="n">
         <v>39.27000000000001</v>
@@ -10837,7 +10859,7 @@
         <v>28.90000000000001</v>
       </c>
       <c r="K205" t="n">
-        <v>-7.69230769230786</v>
+        <v>100</v>
       </c>
       <c r="L205" t="n">
         <v>39.28000000000002</v>
@@ -10888,7 +10910,7 @@
         <v>28.90000000000001</v>
       </c>
       <c r="K206" t="n">
-        <v>9.090909090908621</v>
+        <v>100</v>
       </c>
       <c r="L206" t="n">
         <v>39.29000000000001</v>
@@ -10938,9 +10960,7 @@
       <c r="J207" t="n">
         <v>28.90000000000001</v>
       </c>
-      <c r="K207" t="n">
-        <v>9.090909090908621</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>39.30000000000002</v>
       </c>
@@ -10990,7 +11010,7 @@
         <v>29.10000000000002</v>
       </c>
       <c r="K208" t="n">
-        <v>23.07692307692291</v>
+        <v>100</v>
       </c>
       <c r="L208" t="n">
         <v>39.32000000000001</v>
@@ -11041,7 +11061,7 @@
         <v>29.40000000000001</v>
       </c>
       <c r="K209" t="n">
-        <v>0</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L209" t="n">
         <v>39.31000000000002</v>
@@ -11092,7 +11112,7 @@
         <v>29.40000000000001</v>
       </c>
       <c r="K210" t="n">
-        <v>0</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L210" t="n">
         <v>39.30000000000001</v>
@@ -11143,7 +11163,7 @@
         <v>29.40000000000001</v>
       </c>
       <c r="K211" t="n">
-        <v>-6.666666666666288</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L211" t="n">
         <v>39.29000000000001</v>
@@ -11194,7 +11214,7 @@
         <v>29.50000000000001</v>
       </c>
       <c r="K212" t="n">
-        <v>-12.49999999999972</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L212" t="n">
         <v>39.27000000000001</v>
@@ -11245,7 +11265,7 @@
         <v>29.50000000000001</v>
       </c>
       <c r="K213" t="n">
-        <v>-12.49999999999972</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L213" t="n">
         <v>39.25000000000001</v>
@@ -11296,7 +11316,7 @@
         <v>29.60000000000002</v>
       </c>
       <c r="K214" t="n">
-        <v>33.33333333333373</v>
+        <v>-14.28571428571342</v>
       </c>
       <c r="L214" t="n">
         <v>39.24000000000001</v>
@@ -11347,7 +11367,7 @@
         <v>29.70000000000002</v>
       </c>
       <c r="K215" t="n">
-        <v>-11.11111111111129</v>
+        <v>-24.99999999999933</v>
       </c>
       <c r="L215" t="n">
         <v>39.22000000000001</v>
@@ -11398,7 +11418,7 @@
         <v>29.70000000000002</v>
       </c>
       <c r="K216" t="n">
-        <v>-11.11111111111129</v>
+        <v>-24.99999999999933</v>
       </c>
       <c r="L216" t="n">
         <v>39.20000000000001</v>
@@ -11449,7 +11469,7 @@
         <v>29.70000000000002</v>
       </c>
       <c r="K217" t="n">
-        <v>-11.11111111111129</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L217" t="n">
         <v>39.18000000000001</v>
@@ -11500,7 +11520,7 @@
         <v>29.70000000000002</v>
       </c>
       <c r="K218" t="n">
-        <v>-24.99999999999933</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L218" t="n">
         <v>39.14000000000001</v>
@@ -11551,7 +11571,7 @@
         <v>29.70000000000002</v>
       </c>
       <c r="K219" t="n">
-        <v>-24.99999999999933</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L219" t="n">
         <v>39.13000000000002</v>
@@ -11602,7 +11622,7 @@
         <v>29.70000000000002</v>
       </c>
       <c r="K220" t="n">
-        <v>-24.99999999999933</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L220" t="n">
         <v>39.12000000000002</v>
@@ -11653,7 +11673,7 @@
         <v>29.70000000000002</v>
       </c>
       <c r="K221" t="n">
-        <v>-24.99999999999933</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
         <v>39.11000000000003</v>
@@ -11704,7 +11724,7 @@
         <v>29.70000000000002</v>
       </c>
       <c r="K222" t="n">
-        <v>-24.99999999999933</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
         <v>39.11000000000003</v>
@@ -11755,7 +11775,7 @@
         <v>29.70000000000002</v>
       </c>
       <c r="K223" t="n">
-        <v>-24.99999999999933</v>
+        <v>-100</v>
       </c>
       <c r="L223" t="n">
         <v>39.11000000000003</v>
@@ -11806,7 +11826,7 @@
         <v>30.00000000000001</v>
       </c>
       <c r="K224" t="n">
-        <v>9.090909090909207</v>
+        <v>100</v>
       </c>
       <c r="L224" t="n">
         <v>39.13000000000002</v>
@@ -11857,7 +11877,7 @@
         <v>30.30000000000001</v>
       </c>
       <c r="K225" t="n">
-        <v>-14.285714285714</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
         <v>39.13000000000002</v>
@@ -11908,7 +11928,7 @@
         <v>30.30000000000001</v>
       </c>
       <c r="K226" t="n">
-        <v>-14.285714285714</v>
+        <v>0</v>
       </c>
       <c r="L226" t="n">
         <v>39.13000000000002</v>
@@ -11959,7 +11979,7 @@
         <v>30.30000000000001</v>
       </c>
       <c r="K227" t="n">
-        <v>-14.285714285714</v>
+        <v>0</v>
       </c>
       <c r="L227" t="n">
         <v>39.13000000000002</v>
@@ -12010,7 +12030,7 @@
         <v>30.80000000000001</v>
       </c>
       <c r="K228" t="n">
-        <v>5.882352941176569</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L228" t="n">
         <v>39.18000000000002</v>
@@ -12061,7 +12081,7 @@
         <v>30.90000000000001</v>
       </c>
       <c r="K229" t="n">
-        <v>19.99999999999981</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L229" t="n">
         <v>39.22000000000002</v>
@@ -12112,7 +12132,7 @@
         <v>31.00000000000001</v>
       </c>
       <c r="K230" t="n">
-        <v>24.99999999999989</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L230" t="n">
         <v>39.27000000000002</v>
@@ -12163,7 +12183,7 @@
         <v>31.40000000000001</v>
       </c>
       <c r="K231" t="n">
-        <v>0</v>
+        <v>5.882352941176569</v>
       </c>
       <c r="L231" t="n">
         <v>39.28000000000002</v>
@@ -12214,7 +12234,7 @@
         <v>31.40000000000001</v>
       </c>
       <c r="K232" t="n">
-        <v>5.263157894736921</v>
+        <v>5.882352941176569</v>
       </c>
       <c r="L232" t="n">
         <v>39.29000000000001</v>
@@ -12265,7 +12285,7 @@
         <v>31.60000000000002</v>
       </c>
       <c r="K233" t="n">
-        <v>-4.761904761904826</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L233" t="n">
         <v>39.28000000000002</v>
@@ -12316,7 +12336,7 @@
         <v>32.00000000000001</v>
       </c>
       <c r="K234" t="n">
-        <v>8.333333333333162</v>
+        <v>17.64705882352921</v>
       </c>
       <c r="L234" t="n">
         <v>39.28000000000002</v>
@@ -12367,7 +12387,7 @@
         <v>32.20000000000001</v>
       </c>
       <c r="K235" t="n">
-        <v>4.000000000000068</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L235" t="n">
         <v>39.29000000000001</v>
@@ -12418,7 +12438,7 @@
         <v>32.40000000000001</v>
       </c>
       <c r="K236" t="n">
-        <v>-3.703703703703762</v>
+        <v>-4.761904761904826</v>
       </c>
       <c r="L236" t="n">
         <v>39.28000000000001</v>
@@ -12469,7 +12489,7 @@
         <v>32.50000000000001</v>
       </c>
       <c r="K237" t="n">
-        <v>0</v>
+        <v>-29.41176470588231</v>
       </c>
       <c r="L237" t="n">
         <v>39.28000000000001</v>
@@ -12520,7 +12540,7 @@
         <v>32.70000000000001</v>
       </c>
       <c r="K238" t="n">
-        <v>6.66666666666654</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L238" t="n">
         <v>39.25000000000001</v>
@@ -12571,7 +12591,7 @@
         <v>32.70000000000001</v>
       </c>
       <c r="K239" t="n">
-        <v>6.66666666666654</v>
+        <v>-17.64705882352971</v>
       </c>
       <c r="L239" t="n">
         <v>39.23</v>
@@ -12622,7 +12642,7 @@
         <v>32.90000000000001</v>
       </c>
       <c r="K240" t="n">
-        <v>12.49999999999997</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L240" t="n">
         <v>39.22000000000001</v>
@@ -12673,7 +12693,7 @@
         <v>33.00000000000001</v>
       </c>
       <c r="K241" t="n">
-        <v>9.090909090909012</v>
+        <v>12.49999999999972</v>
       </c>
       <c r="L241" t="n">
         <v>39.24</v>
@@ -12724,7 +12744,7 @@
         <v>33.00000000000001</v>
       </c>
       <c r="K242" t="n">
-        <v>9.090909090909012</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L242" t="n">
         <v>39.26000000000001</v>
@@ -12775,7 +12795,7 @@
         <v>33.00000000000001</v>
       </c>
       <c r="K243" t="n">
-        <v>9.090909090909012</v>
+        <v>0</v>
       </c>
       <c r="L243" t="n">
         <v>39.3</v>
@@ -12826,7 +12846,7 @@
         <v>33.20000000000002</v>
       </c>
       <c r="K244" t="n">
-        <v>6.250000000000083</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L244" t="n">
         <v>39.32000000000001</v>
@@ -12877,7 +12897,7 @@
         <v>33.40000000000001</v>
       </c>
       <c r="K245" t="n">
-        <v>22.58064516129017</v>
+        <v>79.99999999999972</v>
       </c>
       <c r="L245" t="n">
         <v>39.38000000000001</v>
@@ -12928,7 +12948,7 @@
         <v>33.50000000000001</v>
       </c>
       <c r="K246" t="n">
-        <v>24.99999999999989</v>
+        <v>79.99999999999972</v>
       </c>
       <c r="L246" t="n">
         <v>39.47000000000001</v>
@@ -12979,7 +12999,7 @@
         <v>34.00000000000001</v>
       </c>
       <c r="K247" t="n">
-        <v>8.108108108108025</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L247" t="n">
         <v>39.5</v>
@@ -13030,7 +13050,7 @@
         <v>34.00000000000001</v>
       </c>
       <c r="K248" t="n">
-        <v>-6.250000000000083</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L248" t="n">
         <v>39.51</v>
@@ -13081,7 +13101,7 @@
         <v>34.00000000000001</v>
       </c>
       <c r="K249" t="n">
-        <v>-3.225806451612947</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L249" t="n">
         <v>39.52</v>
@@ -13132,7 +13152,7 @@
         <v>34.10000000000002</v>
       </c>
       <c r="K250" t="n">
-        <v>-9.677419354838843</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L250" t="n">
         <v>39.49999999999999</v>
@@ -13183,7 +13203,7 @@
         <v>34.20000000000002</v>
       </c>
       <c r="K251" t="n">
-        <v>7.14285714285698</v>
+        <v>0</v>
       </c>
       <c r="L251" t="n">
         <v>39.49999999999999</v>
@@ -13234,7 +13254,7 @@
         <v>34.20000000000002</v>
       </c>
       <c r="K252" t="n">
-        <v>7.14285714285698</v>
+        <v>0</v>
       </c>
       <c r="L252" t="n">
         <v>39.49999999999999</v>
@@ -13285,7 +13305,7 @@
         <v>34.20000000000002</v>
       </c>
       <c r="K253" t="n">
-        <v>15.38461538461532</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L253" t="n">
         <v>39.49999999999999</v>
@@ -13336,7 +13356,7 @@
         <v>34.20000000000002</v>
       </c>
       <c r="K254" t="n">
-        <v>0</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L254" t="n">
         <v>39.47999999999999</v>
@@ -13387,7 +13407,7 @@
         <v>34.20000000000002</v>
       </c>
       <c r="K255" t="n">
-        <v>9.999999999999751</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L255" t="n">
         <v>39.43999999999998</v>
@@ -13438,7 +13458,7 @@
         <v>34.20000000000002</v>
       </c>
       <c r="K256" t="n">
-        <v>22.22222222222209</v>
+        <v>0</v>
       </c>
       <c r="L256" t="n">
         <v>39.38999999999999</v>
@@ -13489,7 +13509,7 @@
         <v>34.20000000000002</v>
       </c>
       <c r="K257" t="n">
-        <v>17.64705882352921</v>
+        <v>0</v>
       </c>
       <c r="L257" t="n">
         <v>39.38999999999999</v>
@@ -13540,7 +13560,7 @@
         <v>34.40000000000002</v>
       </c>
       <c r="K258" t="n">
-        <v>17.64705882352956</v>
+        <v>50</v>
       </c>
       <c r="L258" t="n">
         <v>39.40999999999999</v>
@@ -13591,7 +13611,7 @@
         <v>34.40000000000002</v>
       </c>
       <c r="K259" t="n">
-        <v>17.64705882352956</v>
+        <v>100</v>
       </c>
       <c r="L259" t="n">
         <v>39.42999999999999</v>
@@ -13642,7 +13662,7 @@
         <v>34.60000000000002</v>
       </c>
       <c r="K260" t="n">
-        <v>-5.88235294117652</v>
+        <v>0</v>
       </c>
       <c r="L260" t="n">
         <v>39.43999999999999</v>
@@ -13693,7 +13713,7 @@
         <v>34.80000000000003</v>
       </c>
       <c r="K261" t="n">
-        <v>11.1111111111112</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L261" t="n">
         <v>39.45999999999999</v>
@@ -13846,7 +13866,7 @@
         <v>35.20000000000003</v>
       </c>
       <c r="K264" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L264" t="n">
         <v>39.48</v>
@@ -13897,7 +13917,7 @@
         <v>35.40000000000003</v>
       </c>
       <c r="K265" t="n">
-        <v>-19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L265" t="n">
         <v>39.48</v>
@@ -13948,7 +13968,7 @@
         <v>35.40000000000003</v>
       </c>
       <c r="K266" t="n">
-        <v>-26.31578947368394</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
         <v>39.48</v>
@@ -13999,7 +14019,7 @@
         <v>35.40000000000003</v>
       </c>
       <c r="K267" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L267" t="n">
         <v>39.48</v>
@@ -14050,7 +14070,7 @@
         <v>35.40000000000003</v>
       </c>
       <c r="K268" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L268" t="n">
         <v>39.45999999999999</v>
@@ -14152,7 +14172,7 @@
         <v>35.50000000000004</v>
       </c>
       <c r="K270" t="n">
-        <v>14.28571428571428</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L270" t="n">
         <v>39.45</v>
@@ -14203,7 +14223,7 @@
         <v>35.80000000000003</v>
       </c>
       <c r="K271" t="n">
-        <v>-12.49999999999961</v>
+        <v>-24.99999999999933</v>
       </c>
       <c r="L271" t="n">
         <v>39.40999999999999</v>
@@ -14254,7 +14274,7 @@
         <v>36.10000000000003</v>
       </c>
       <c r="K272" t="n">
-        <v>5.263157894736882</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L272" t="n">
         <v>39.41999999999999</v>
@@ -14305,7 +14325,7 @@
         <v>36.20000000000003</v>
       </c>
       <c r="K273" t="n">
-        <v>0</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L273" t="n">
         <v>39.41999999999999</v>
@@ -14356,7 +14376,7 @@
         <v>36.40000000000003</v>
       </c>
       <c r="K274" t="n">
-        <v>-9.090909090908857</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L274" t="n">
         <v>39.37999999999999</v>
@@ -14407,7 +14427,7 @@
         <v>36.40000000000003</v>
       </c>
       <c r="K275" t="n">
-        <v>-9.090909090908857</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L275" t="n">
         <v>39.35999999999999</v>
@@ -14458,7 +14478,7 @@
         <v>36.40000000000003</v>
       </c>
       <c r="K276" t="n">
-        <v>-9.090909090908857</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L276" t="n">
         <v>39.33999999999999</v>
@@ -14560,7 +14580,7 @@
         <v>36.70000000000002</v>
       </c>
       <c r="K278" t="n">
-        <v>-13.04347826086973</v>
+        <v>-7.69230769230786</v>
       </c>
       <c r="L278" t="n">
         <v>39.33</v>
@@ -14611,7 +14631,7 @@
         <v>36.90000000000003</v>
       </c>
       <c r="K279" t="n">
-        <v>-4.000000000000045</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
         <v>39.34</v>
@@ -14662,7 +14682,7 @@
         <v>37.00000000000003</v>
       </c>
       <c r="K280" t="n">
-        <v>0</v>
+        <v>16.66666666666637</v>
       </c>
       <c r="L280" t="n">
         <v>39.33</v>
@@ -14713,7 +14733,7 @@
         <v>37.30000000000003</v>
       </c>
       <c r="K281" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L281" t="n">
         <v>39.32</v>
@@ -14764,7 +14784,7 @@
         <v>37.50000000000002</v>
       </c>
       <c r="K282" t="n">
-        <v>-4.000000000000068</v>
+        <v>-7.69230769230786</v>
       </c>
       <c r="L282" t="n">
         <v>39.3</v>
@@ -14815,7 +14835,7 @@
         <v>37.50000000000002</v>
       </c>
       <c r="K283" t="n">
-        <v>-4.000000000000068</v>
+        <v>9.090909090908621</v>
       </c>
       <c r="L283" t="n">
         <v>39.29000000000001</v>
@@ -14866,7 +14886,7 @@
         <v>37.50000000000002</v>
       </c>
       <c r="K284" t="n">
-        <v>-13.04347826086981</v>
+        <v>9.090909090908621</v>
       </c>
       <c r="L284" t="n">
         <v>39.3</v>
@@ -14917,7 +14937,7 @@
         <v>37.60000000000002</v>
       </c>
       <c r="K285" t="n">
-        <v>0</v>
+        <v>16.66666666666637</v>
       </c>
       <c r="L285" t="n">
         <v>39.32000000000001</v>
@@ -15019,7 +15039,7 @@
         <v>37.60000000000002</v>
       </c>
       <c r="K287" t="n">
-        <v>0</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L287" t="n">
         <v>39.34</v>
@@ -15070,7 +15090,7 @@
         <v>37.60000000000002</v>
       </c>
       <c r="K288" t="n">
-        <v>0</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L288" t="n">
         <v>39.35</v>
@@ -15121,7 +15141,7 @@
         <v>37.70000000000002</v>
       </c>
       <c r="K289" t="n">
-        <v>-4.347826086956602</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L289" t="n">
         <v>39.33</v>
@@ -15172,7 +15192,7 @@
         <v>37.70000000000002</v>
       </c>
       <c r="K290" t="n">
-        <v>-9.090909090909268</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L290" t="n">
         <v>39.32000000000001</v>
@@ -15223,7 +15243,7 @@
         <v>37.80000000000003</v>
       </c>
       <c r="K291" t="n">
-        <v>9.999999999999822</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L291" t="n">
         <v>39.35</v>
@@ -15274,7 +15294,7 @@
         <v>38.00000000000003</v>
       </c>
       <c r="K292" t="n">
-        <v>5.263157894736921</v>
+        <v>60</v>
       </c>
       <c r="L292" t="n">
         <v>39.38</v>
@@ -15325,7 +15345,7 @@
         <v>38.40000000000003</v>
       </c>
       <c r="K293" t="n">
-        <v>-9.090909090908914</v>
+        <v>-11.11111111111041</v>
       </c>
       <c r="L293" t="n">
         <v>39.37</v>
@@ -15376,7 +15396,7 @@
         <v>38.70000000000002</v>
       </c>
       <c r="K294" t="n">
-        <v>13.04347826086946</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L294" t="n">
         <v>39.39</v>
@@ -15427,7 +15447,7 @@
         <v>39.00000000000002</v>
       </c>
       <c r="K295" t="n">
-        <v>0</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L295" t="n">
         <v>39.37</v>
@@ -15478,7 +15498,7 @@
         <v>39.40000000000002</v>
       </c>
       <c r="K296" t="n">
-        <v>13.33333333333332</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L296" t="n">
         <v>39.39</v>
@@ -15580,7 +15600,7 @@
         <v>39.80000000000003</v>
       </c>
       <c r="K298" t="n">
-        <v>9.677419354838843</v>
+        <v>14.28571428571448</v>
       </c>
       <c r="L298" t="n">
         <v>39.41000000000001</v>
@@ -15631,7 +15651,7 @@
         <v>40.30000000000003</v>
       </c>
       <c r="K299" t="n">
-        <v>-11.7647058823529</v>
+        <v>-7.692307692307525</v>
       </c>
       <c r="L299" t="n">
         <v>39.39000000000001</v>
@@ -15682,7 +15702,7 @@
         <v>40.40000000000003</v>
       </c>
       <c r="K300" t="n">
-        <v>-5.882352941176348</v>
+        <v>-7.692307692307525</v>
       </c>
       <c r="L300" t="n">
         <v>39.38000000000001</v>
@@ -15733,7 +15753,7 @@
         <v>40.70000000000002</v>
       </c>
       <c r="K301" t="n">
-        <v>11.7647058823529</v>
+        <v>-3.703703703703762</v>
       </c>
       <c r="L301" t="n">
         <v>39.39000000000001</v>
@@ -15784,7 +15804,7 @@
         <v>41.00000000000002</v>
       </c>
       <c r="K302" t="n">
-        <v>-2.857142857142695</v>
+        <v>0</v>
       </c>
       <c r="L302" t="n">
         <v>39.35000000000001</v>
@@ -15835,7 +15855,7 @@
         <v>41.30000000000002</v>
       </c>
       <c r="K303" t="n">
-        <v>5.263157894736921</v>
+        <v>0</v>
       </c>
       <c r="L303" t="n">
         <v>39.38000000000001</v>
@@ -15886,7 +15906,7 @@
         <v>41.60000000000002</v>
       </c>
       <c r="K304" t="n">
-        <v>-2.439024390243767</v>
+        <v>0</v>
       </c>
       <c r="L304" t="n">
         <v>39.35000000000001</v>
@@ -15937,7 +15957,7 @@
         <v>41.90000000000001</v>
       </c>
       <c r="K305" t="n">
-        <v>2.325581395348876</v>
+        <v>-4.000000000000068</v>
       </c>
       <c r="L305" t="n">
         <v>39.38000000000001</v>
@@ -15988,7 +16008,7 @@
         <v>41.90000000000001</v>
       </c>
       <c r="K306" t="n">
-        <v>2.325581395348876</v>
+        <v>4.347826086956602</v>
       </c>
       <c r="L306" t="n">
         <v>39.37</v>
@@ -16039,7 +16059,7 @@
         <v>41.90000000000001</v>
       </c>
       <c r="K307" t="n">
-        <v>2.325581395348876</v>
+        <v>-4.761904761904859</v>
       </c>
       <c r="L307" t="n">
         <v>39.38000000000001</v>
@@ -16090,7 +16110,7 @@
         <v>42.10000000000002</v>
       </c>
       <c r="K308" t="n">
-        <v>-2.222222222222257</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L308" t="n">
         <v>39.35000000000001</v>
@@ -16141,7 +16161,7 @@
         <v>42.10000000000002</v>
       </c>
       <c r="K309" t="n">
-        <v>0</v>
+        <v>5.882352941176175</v>
       </c>
       <c r="L309" t="n">
         <v>39.37</v>
@@ -16192,7 +16212,7 @@
         <v>42.10000000000002</v>
       </c>
       <c r="K310" t="n">
-        <v>0</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L310" t="n">
         <v>39.38000000000001</v>
@@ -16243,7 +16263,7 @@
         <v>42.20000000000001</v>
       </c>
       <c r="K311" t="n">
-        <v>-4.545454545454464</v>
+        <v>0</v>
       </c>
       <c r="L311" t="n">
         <v>39.35000000000001</v>
@@ -16294,7 +16314,7 @@
         <v>42.3</v>
       </c>
       <c r="K312" t="n">
-        <v>-6.97674418604665</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L312" t="n">
         <v>39.36000000000001</v>
@@ -16345,7 +16365,7 @@
         <v>42.3</v>
       </c>
       <c r="K313" t="n">
-        <v>2.564102564102433</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L313" t="n">
         <v>39.34000000000001</v>
@@ -16396,7 +16416,7 @@
         <v>42.3</v>
       </c>
       <c r="K314" t="n">
-        <v>-5.555555555555665</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L314" t="n">
         <v>39.35000000000001</v>
@@ -16447,7 +16467,7 @@
         <v>42.3</v>
       </c>
       <c r="K315" t="n">
-        <v>3.030303030302874</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L315" t="n">
         <v>39.33000000000001</v>
@@ -16498,7 +16518,7 @@
         <v>42.3</v>
       </c>
       <c r="K316" t="n">
-        <v>-10.3448275862071</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L316" t="n">
         <v>39.31000000000002</v>
@@ -16549,7 +16569,7 @@
         <v>42.40000000000001</v>
       </c>
       <c r="K317" t="n">
-        <v>0</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L317" t="n">
         <v>39.30000000000001</v>
@@ -16600,7 +16620,7 @@
         <v>42.50000000000001</v>
       </c>
       <c r="K318" t="n">
-        <v>-11.11111111111135</v>
+        <v>0</v>
       </c>
       <c r="L318" t="n">
         <v>39.30000000000001</v>
@@ -16651,7 +16671,7 @@
         <v>42.6</v>
       </c>
       <c r="K319" t="n">
-        <v>4.347826086956629</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L319" t="n">
         <v>39.29000000000001</v>
@@ -16702,7 +16722,7 @@
         <v>42.7</v>
       </c>
       <c r="K320" t="n">
-        <v>4.347826086956333</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L320" t="n">
         <v>39.29000000000001</v>
@@ -16753,7 +16773,7 @@
         <v>42.7</v>
       </c>
       <c r="K321" t="n">
-        <v>-10.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L321" t="n">
         <v>39.30000000000001</v>
@@ -16804,7 +16824,7 @@
         <v>42.8</v>
       </c>
       <c r="K322" t="n">
-        <v>11.11111111111102</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L322" t="n">
         <v>39.31000000000001</v>
@@ -16855,7 +16875,7 @@
         <v>42.8</v>
       </c>
       <c r="K323" t="n">
-        <v>-6.666666666666857</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L323" t="n">
         <v>39.32000000000001</v>
@@ -16906,7 +16926,7 @@
         <v>42.8</v>
       </c>
       <c r="K324" t="n">
-        <v>16.66666666666657</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L324" t="n">
         <v>39.33</v>
@@ -16957,7 +16977,7 @@
         <v>42.9</v>
       </c>
       <c r="K325" t="n">
-        <v>-20.00000000000057</v>
+        <v>0</v>
       </c>
       <c r="L325" t="n">
         <v>39.33</v>
@@ -17008,7 +17028,7 @@
         <v>43</v>
       </c>
       <c r="K326" t="n">
-        <v>-9.090909090909326</v>
+        <v>0</v>
       </c>
       <c r="L326" t="n">
         <v>39.34</v>
@@ -17059,7 +17079,7 @@
         <v>43</v>
       </c>
       <c r="K327" t="n">
-        <v>-9.090909090909326</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L327" t="n">
         <v>39.34</v>
@@ -17110,7 +17130,7 @@
         <v>43</v>
       </c>
       <c r="K328" t="n">
-        <v>11.11111111111146</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L328" t="n">
         <v>39.34999999999999</v>
@@ -17161,7 +17181,7 @@
         <v>43.1</v>
       </c>
       <c r="K329" t="n">
-        <v>20.00000000000057</v>
+        <v>50</v>
       </c>
       <c r="L329" t="n">
         <v>39.38</v>
@@ -17212,7 +17232,7 @@
         <v>43.1</v>
       </c>
       <c r="K330" t="n">
-        <v>20.00000000000057</v>
+        <v>50</v>
       </c>
       <c r="L330" t="n">
         <v>39.39999999999999</v>
@@ -17263,7 +17283,7 @@
         <v>43.2</v>
       </c>
       <c r="K331" t="n">
-        <v>19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L331" t="n">
         <v>39.40999999999999</v>
@@ -17314,7 +17334,7 @@
         <v>43.3</v>
       </c>
       <c r="K332" t="n">
-        <v>20.00000000000028</v>
+        <v>20</v>
       </c>
       <c r="L332" t="n">
         <v>39.41999999999999</v>
@@ -17365,7 +17385,7 @@
         <v>43.3</v>
       </c>
       <c r="K333" t="n">
-        <v>20.00000000000028</v>
+        <v>20</v>
       </c>
       <c r="L333" t="n">
         <v>39.42999999999999</v>
@@ -17416,7 +17436,7 @@
         <v>43.6</v>
       </c>
       <c r="K334" t="n">
-        <v>38.46153846153855</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L334" t="n">
         <v>39.47</v>
@@ -17467,7 +17487,7 @@
         <v>43.6</v>
       </c>
       <c r="K335" t="n">
-        <v>38.46153846153855</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L335" t="n">
         <v>39.52</v>
@@ -17518,7 +17538,7 @@
         <v>43.7</v>
       </c>
       <c r="K336" t="n">
-        <v>28.57142857142915</v>
+        <v>42.85714285714373</v>
       </c>
       <c r="L336" t="n">
         <v>39.55</v>
@@ -17569,7 +17589,7 @@
         <v>44.1</v>
       </c>
       <c r="K337" t="n">
-        <v>-5.882352941176569</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L337" t="n">
         <v>39.54000000000001</v>
@@ -17620,7 +17640,7 @@
         <v>44.50000000000001</v>
       </c>
       <c r="K338" t="n">
-        <v>20.00000000000028</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L338" t="n">
         <v>39.57000000000001</v>
@@ -17671,7 +17691,7 @@
         <v>44.50000000000001</v>
       </c>
       <c r="K339" t="n">
-        <v>26.31578947368413</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L339" t="n">
         <v>39.59</v>
@@ -17722,7 +17742,7 @@
         <v>44.70000000000001</v>
       </c>
       <c r="K340" t="n">
-        <v>10.00000000000007</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L340" t="n">
         <v>39.59</v>
@@ -17773,7 +17793,7 @@
         <v>44.80000000000001</v>
       </c>
       <c r="K341" t="n">
-        <v>14.28571428571438</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L341" t="n">
         <v>39.61000000000001</v>
@@ -17824,7 +17844,7 @@
         <v>45.00000000000001</v>
       </c>
       <c r="K342" t="n">
-        <v>18.18181818181803</v>
+        <v>17.64705882352921</v>
       </c>
       <c r="L342" t="n">
         <v>39.64000000000001</v>
@@ -17875,7 +17895,7 @@
         <v>45.00000000000001</v>
       </c>
       <c r="K343" t="n">
-        <v>18.18181818181803</v>
+        <v>0</v>
       </c>
       <c r="L343" t="n">
         <v>39.67000000000001</v>
@@ -17926,7 +17946,7 @@
         <v>45.20000000000001</v>
       </c>
       <c r="K344" t="n">
-        <v>24.99999999999993</v>
+        <v>12.50000000000011</v>
       </c>
       <c r="L344" t="n">
         <v>39.69000000000001</v>
@@ -17977,7 +17997,7 @@
         <v>45.20000000000001</v>
       </c>
       <c r="K345" t="n">
-        <v>30.43478260869563</v>
+        <v>19.99999999999962</v>
       </c>
       <c r="L345" t="n">
         <v>39.71000000000001</v>
@@ -18028,7 +18048,7 @@
         <v>45.20000000000001</v>
       </c>
       <c r="K346" t="n">
-        <v>27.27272727272722</v>
+        <v>63.6363636363634</v>
       </c>
       <c r="L346" t="n">
         <v>39.74000000000001</v>
@@ -18079,7 +18099,7 @@
         <v>45.20000000000001</v>
       </c>
       <c r="K347" t="n">
-        <v>27.27272727272722</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L347" t="n">
         <v>39.81000000000001</v>
@@ -18130,7 +18150,7 @@
         <v>45.40000000000001</v>
       </c>
       <c r="K348" t="n">
-        <v>33.33333333333333</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L348" t="n">
         <v>39.86000000000001</v>
@@ -18181,7 +18201,7 @@
         <v>45.50000000000001</v>
       </c>
       <c r="K349" t="n">
-        <v>24.99999999999993</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L349" t="n">
         <v>39.90000000000001</v>
@@ -18232,7 +18252,7 @@
         <v>46.20000000000001</v>
       </c>
       <c r="K350" t="n">
-        <v>41.93548387096753</v>
+        <v>85.7142857142855</v>
       </c>
       <c r="L350" t="n">
         <v>40.03000000000002</v>
@@ -18283,7 +18303,7 @@
         <v>46.60000000000002</v>
       </c>
       <c r="K351" t="n">
-        <v>52.94117647058816</v>
+        <v>87.49999999999989</v>
       </c>
       <c r="L351" t="n">
         <v>40.19000000000001</v>
@@ -18334,7 +18354,7 @@
         <v>46.70000000000002</v>
       </c>
       <c r="K352" t="n">
-        <v>47.05882352941163</v>
+        <v>76.47058823529392</v>
       </c>
       <c r="L352" t="n">
         <v>40.32000000000001</v>
@@ -18385,7 +18405,7 @@
         <v>46.90000000000001</v>
       </c>
       <c r="K353" t="n">
-        <v>49.9999999999998</v>
+        <v>76.47058823529382</v>
       </c>
       <c r="L353" t="n">
         <v>40.47000000000001</v>
@@ -18436,7 +18456,7 @@
         <v>47.00000000000001</v>
       </c>
       <c r="K354" t="n">
-        <v>47.05882352941163</v>
+        <v>77.77777777777752</v>
       </c>
       <c r="L354" t="n">
         <v>40.61000000000001</v>
@@ -18487,7 +18507,7 @@
         <v>47.00000000000001</v>
       </c>
       <c r="K355" t="n">
-        <v>47.05882352941163</v>
+        <v>77.77777777777752</v>
       </c>
       <c r="L355" t="n">
         <v>40.75000000000001</v>
@@ -18538,7 +18558,7 @@
         <v>47.00000000000001</v>
       </c>
       <c r="K356" t="n">
-        <v>51.5151515151511</v>
+        <v>77.77777777777752</v>
       </c>
       <c r="L356" t="n">
         <v>40.89</v>
@@ -18589,7 +18609,7 @@
         <v>47.00000000000001</v>
       </c>
       <c r="K357" t="n">
-        <v>72.41379310344801</v>
+        <v>74.99999999999967</v>
       </c>
       <c r="L357" t="n">
         <v>41.03</v>
@@ -18640,7 +18660,7 @@
         <v>47.00000000000001</v>
       </c>
       <c r="K358" t="n">
-        <v>67.99999999999964</v>
+        <v>86.66666666666649</v>
       </c>
       <c r="L358" t="n">
         <v>41.15</v>
@@ -18691,7 +18711,7 @@
         <v>47.10000000000002</v>
       </c>
       <c r="K359" t="n">
-        <v>69.2307692307689</v>
+        <v>77.7777777777776</v>
       </c>
       <c r="L359" t="n">
         <v>41.29</v>
@@ -18742,7 +18762,7 @@
         <v>47.60000000000002</v>
       </c>
       <c r="K360" t="n">
-        <v>51.72413793103438</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L360" t="n">
         <v>41.31</v>
@@ -18793,7 +18813,7 @@
         <v>47.80000000000002</v>
       </c>
       <c r="K361" t="n">
-        <v>39.99999999999977</v>
+        <v>-27.27272727272763</v>
       </c>
       <c r="L361" t="n">
         <v>41.27</v>
@@ -18844,7 +18864,7 @@
         <v>48.30000000000002</v>
       </c>
       <c r="K362" t="n">
-        <v>45.4545454545453</v>
+        <v>0</v>
       </c>
       <c r="L362" t="n">
         <v>41.29</v>
@@ -18895,7 +18915,7 @@
         <v>48.30000000000002</v>
       </c>
       <c r="K363" t="n">
-        <v>45.4545454545453</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L363" t="n">
         <v>41.29</v>
@@ -18946,7 +18966,7 @@
         <v>48.70000000000002</v>
       </c>
       <c r="K364" t="n">
-        <v>25.71428571428562</v>
+        <v>-29.41176470588231</v>
       </c>
       <c r="L364" t="n">
         <v>41.23999999999999</v>
@@ -18997,7 +19017,7 @@
         <v>48.90000000000001</v>
       </c>
       <c r="K365" t="n">
-        <v>18.91891891891898</v>
+        <v>-36.8421052631577</v>
       </c>
       <c r="L365" t="n">
         <v>41.17</v>
@@ -19048,7 +19068,7 @@
         <v>49.00000000000001</v>
       </c>
       <c r="K366" t="n">
-        <v>21.05263157894731</v>
+        <v>-30.00000000000018</v>
       </c>
       <c r="L366" t="n">
         <v>41.11</v>
@@ -19099,7 +19119,7 @@
         <v>49.1</v>
       </c>
       <c r="K367" t="n">
-        <v>17.94871794871806</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L367" t="n">
         <v>41.04000000000001</v>
@@ -19150,7 +19170,7 @@
         <v>49.2</v>
       </c>
       <c r="K368" t="n">
-        <v>10.52631578947367</v>
+        <v>-42.85714285714305</v>
       </c>
       <c r="L368" t="n">
         <v>40.96000000000001</v>
@@ -19201,7 +19221,7 @@
         <v>49.3</v>
       </c>
       <c r="K369" t="n">
-        <v>10.52631578947367</v>
+        <v>-29.41176470588255</v>
       </c>
       <c r="L369" t="n">
         <v>40.86000000000001</v>
@@ -19252,7 +19272,7 @@
         <v>49.40000000000001</v>
       </c>
       <c r="K370" t="n">
-        <v>-6.249999999999875</v>
+        <v>-12.49999999999983</v>
       </c>
       <c r="L370" t="n">
         <v>40.82000000000001</v>
@@ -19303,7 +19323,7 @@
         <v>49.70000000000001</v>
       </c>
       <c r="K371" t="n">
-        <v>-29.03225806451636</v>
+        <v>-71.42857142857186</v>
       </c>
       <c r="L371" t="n">
         <v>40.77000000000001</v>
@@ -19354,7 +19374,7 @@
         <v>49.70000000000001</v>
       </c>
       <c r="K372" t="n">
-        <v>-26.66666666666687</v>
+        <v>-71.42857142857186</v>
       </c>
       <c r="L372" t="n">
         <v>40.67000000000001</v>
@@ -19405,7 +19425,7 @@
         <v>49.90000000000001</v>
       </c>
       <c r="K373" t="n">
-        <v>-26.66666666666657</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L373" t="n">
         <v>40.59000000000001</v>
@@ -19456,7 +19476,7 @@
         <v>50.20000000000001</v>
       </c>
       <c r="K374" t="n">
-        <v>-18.75000000000007</v>
+        <v>7.692307692307272</v>
       </c>
       <c r="L374" t="n">
         <v>40.58000000000001</v>
@@ -19507,7 +19527,7 @@
         <v>50.50000000000001</v>
       </c>
       <c r="K375" t="n">
-        <v>-25.71428571428573</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L375" t="n">
         <v>40.56000000000002</v>
@@ -19558,7 +19578,7 @@
         <v>50.8</v>
       </c>
       <c r="K376" t="n">
-        <v>-15.78947368421061</v>
+        <v>5.882352941176126</v>
       </c>
       <c r="L376" t="n">
         <v>40.56000000000002</v>
@@ -19609,7 +19629,7 @@
         <v>51.2</v>
       </c>
       <c r="K377" t="n">
-        <v>-23.80952380952387</v>
+        <v>-10.00000000000014</v>
       </c>
       <c r="L377" t="n">
         <v>40.53000000000002</v>
@@ -19660,7 +19680,7 @@
         <v>51.2</v>
       </c>
       <c r="K378" t="n">
-        <v>-23.80952380952387</v>
+        <v>-5.263157894736921</v>
       </c>
       <c r="L378" t="n">
         <v>40.51000000000001</v>
@@ -19711,7 +19731,7 @@
         <v>51.3</v>
       </c>
       <c r="K379" t="n">
-        <v>-28.57142857142872</v>
+        <v>-15.78947368421076</v>
       </c>
       <c r="L379" t="n">
         <v>40.49000000000001</v>
@@ -19762,7 +19782,7 @@
         <v>51.50000000000001</v>
       </c>
       <c r="K380" t="n">
-        <v>-12.82051282051285</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L380" t="n">
         <v>40.48</v>
@@ -19813,7 +19833,7 @@
         <v>51.50000000000001</v>
       </c>
       <c r="K381" t="n">
-        <v>-8.108108108108055</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L381" t="n">
         <v>40.50000000000001</v>
@@ -19864,7 +19884,7 @@
         <v>51.60000000000001</v>
       </c>
       <c r="K382" t="n">
-        <v>-27.27272727272731</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L382" t="n">
         <v>40.51000000000001</v>
@@ -19915,7 +19935,7 @@
         <v>51.90000000000001</v>
       </c>
       <c r="K383" t="n">
-        <v>-16.66666666666654</v>
+        <v>-5.882352941176126</v>
       </c>
       <c r="L383" t="n">
         <v>40.53</v>
@@ -19966,7 +19986,7 @@
         <v>52.20000000000002</v>
       </c>
       <c r="K384" t="n">
-        <v>-14.28571428571428</v>
+        <v>-5.88235294117652</v>
       </c>
       <c r="L384" t="n">
         <v>40.48999999999999</v>
@@ -20017,7 +20037,7 @@
         <v>52.50000000000002</v>
       </c>
       <c r="K385" t="n">
-        <v>0</v>
+        <v>-5.882352941176077</v>
       </c>
       <c r="L385" t="n">
         <v>40.51</v>
@@ -20068,7 +20088,7 @@
         <v>52.60000000000002</v>
       </c>
       <c r="K386" t="n">
-        <v>0</v>
+        <v>28.57142857142821</v>
       </c>
       <c r="L386" t="n">
         <v>40.51</v>
@@ -20119,7 +20139,7 @@
         <v>52.60000000000002</v>
       </c>
       <c r="K387" t="n">
-        <v>2.857142857142683</v>
+        <v>28.57142857142821</v>
       </c>
       <c r="L387" t="n">
         <v>40.55</v>
@@ -20170,7 +20190,7 @@
         <v>52.70000000000001</v>
       </c>
       <c r="K388" t="n">
-        <v>2.857142857142892</v>
+        <v>28.57142857142886</v>
       </c>
       <c r="L388" t="n">
         <v>40.58</v>
@@ -20221,7 +20241,7 @@
         <v>52.80000000000001</v>
       </c>
       <c r="K389" t="n">
-        <v>2.857142857142892</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L389" t="n">
         <v>40.61</v>
@@ -20272,7 +20292,7 @@
         <v>53.00000000000001</v>
       </c>
       <c r="K390" t="n">
-        <v>5.555555555555435</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L390" t="n">
         <v>40.64</v>
@@ -20323,7 +20343,7 @@
         <v>53.2</v>
       </c>
       <c r="K391" t="n">
-        <v>8.57142857142871</v>
+        <v>12.50000000000022</v>
       </c>
       <c r="L391" t="n">
         <v>40.65000000000001</v>
@@ -20374,7 +20394,7 @@
         <v>53.3</v>
       </c>
       <c r="K392" t="n">
-        <v>11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L392" t="n">
         <v>40.68000000000001</v>
@@ -20425,7 +20445,7 @@
         <v>53.8</v>
       </c>
       <c r="K393" t="n">
-        <v>-7.692307692307636</v>
+        <v>-12.49999999999983</v>
       </c>
       <c r="L393" t="n">
         <v>40.63000000000001</v>
@@ -20476,7 +20496,7 @@
         <v>54.2</v>
       </c>
       <c r="K394" t="n">
-        <v>-4.999999999999902</v>
+        <v>-5.882352941176618</v>
       </c>
       <c r="L394" t="n">
         <v>40.65000000000001</v>
@@ -20527,7 +20547,7 @@
         <v>54.3</v>
       </c>
       <c r="K395" t="n">
-        <v>0</v>
+        <v>-17.64705882352936</v>
       </c>
       <c r="L395" t="n">
         <v>40.63000000000001</v>
@@ -20578,7 +20598,7 @@
         <v>54.40000000000001</v>
       </c>
       <c r="K396" t="n">
-        <v>-5.555555555555435</v>
+        <v>-11.11111111111093</v>
       </c>
       <c r="L396" t="n">
         <v>40.61000000000001</v>
@@ -20629,7 +20649,7 @@
         <v>54.50000000000001</v>
       </c>
       <c r="K397" t="n">
-        <v>9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L397" t="n">
         <v>40.60000000000001</v>
@@ -20680,7 +20700,7 @@
         <v>54.80000000000001</v>
       </c>
       <c r="K398" t="n">
-        <v>0</v>
+        <v>-10.00000000000014</v>
       </c>
       <c r="L398" t="n">
         <v>40.57000000000001</v>
@@ -20731,7 +20751,7 @@
         <v>55.00000000000001</v>
       </c>
       <c r="K399" t="n">
-        <v>-2.702702702702547</v>
+        <v>-29.99999999999972</v>
       </c>
       <c r="L399" t="n">
         <v>40.53000000000001</v>
@@ -20782,7 +20802,7 @@
         <v>55.2</v>
       </c>
       <c r="K400" t="n">
-        <v>-2.702702702702744</v>
+        <v>-10.00000000000014</v>
       </c>
       <c r="L400" t="n">
         <v>40.49</v>
@@ -20833,7 +20853,7 @@
         <v>55.3</v>
       </c>
       <c r="K401" t="n">
-        <v>0</v>
+        <v>-10.00000000000014</v>
       </c>
       <c r="L401" t="n">
         <v>40.48</v>
@@ -20884,7 +20904,7 @@
         <v>55.40000000000001</v>
       </c>
       <c r="K402" t="n">
-        <v>5.263157894736921</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L402" t="n">
         <v>40.47000000000001</v>
@@ -20935,7 +20955,7 @@
         <v>55.40000000000001</v>
       </c>
       <c r="K403" t="n">
-        <v>-2.857142857142903</v>
+        <v>0</v>
       </c>
       <c r="L403" t="n">
         <v>40.51000000000001</v>
@@ -20986,7 +21006,7 @@
         <v>55.8</v>
       </c>
       <c r="K404" t="n">
-        <v>-5.555555555555457</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L404" t="n">
         <v>40.47000000000001</v>
@@ -21037,7 +21057,7 @@
         <v>56.2</v>
       </c>
       <c r="K405" t="n">
-        <v>-2.702702702702755</v>
+        <v>0</v>
       </c>
       <c r="L405" t="n">
         <v>40.48</v>
@@ -21088,7 +21108,7 @@
         <v>56.2</v>
       </c>
       <c r="K406" t="n">
-        <v>-5.555555555555457</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L406" t="n">
         <v>40.48</v>
@@ -21139,7 +21159,7 @@
         <v>56.2</v>
       </c>
       <c r="K407" t="n">
-        <v>-5.555555555555457</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L407" t="n">
         <v>40.47000000000001</v>
@@ -21190,7 +21210,7 @@
         <v>56.3</v>
       </c>
       <c r="K408" t="n">
-        <v>0</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L408" t="n">
         <v>40.50000000000001</v>
@@ -21241,7 +21261,7 @@
         <v>56.3</v>
       </c>
       <c r="K409" t="n">
-        <v>2.857142857142903</v>
+        <v>27.27272727272763</v>
       </c>
       <c r="L409" t="n">
         <v>40.55000000000001</v>
@@ -21292,7 +21312,7 @@
         <v>56.4</v>
       </c>
       <c r="K410" t="n">
-        <v>0</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L410" t="n">
         <v>40.59000000000002</v>
@@ -21343,7 +21363,7 @@
         <v>56.5</v>
       </c>
       <c r="K411" t="n">
-        <v>9.090909090909012</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L411" t="n">
         <v>40.63000000000001</v>
@@ -21394,7 +21414,7 @@
         <v>57</v>
       </c>
       <c r="K412" t="n">
-        <v>-8.108108108108231</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L412" t="n">
         <v>40.61000000000001</v>
@@ -21445,7 +21465,7 @@
         <v>57.5</v>
       </c>
       <c r="K413" t="n">
-        <v>18.91891891891883</v>
+        <v>41.17647058823515</v>
       </c>
       <c r="L413" t="n">
         <v>40.64</v>
@@ -21496,7 +21516,7 @@
         <v>57.6</v>
       </c>
       <c r="K414" t="n">
-        <v>11.7647058823529</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L414" t="n">
         <v>40.72000000000001</v>
@@ -21547,7 +21567,7 @@
         <v>57.6</v>
       </c>
       <c r="K415" t="n">
-        <v>15.15151515151517</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L415" t="n">
         <v>40.76000000000001</v>
@@ -21598,7 +21618,7 @@
         <v>57.6</v>
       </c>
       <c r="K416" t="n">
-        <v>12.49999999999997</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L416" t="n">
         <v>40.8</v>
@@ -21649,7 +21669,7 @@
         <v>57.8</v>
       </c>
       <c r="K417" t="n">
-        <v>15.15151515151517</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L417" t="n">
         <v>40.86</v>
@@ -21700,7 +21720,7 @@
         <v>57.8</v>
       </c>
       <c r="K418" t="n">
-        <v>26.66666666666687</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L418" t="n">
         <v>40.91</v>
@@ -21751,7 +21771,7 @@
         <v>57.9</v>
       </c>
       <c r="K419" t="n">
-        <v>37.93103448275853</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L419" t="n">
         <v>40.97</v>
@@ -21802,7 +21822,7 @@
         <v>58</v>
       </c>
       <c r="K420" t="n">
-        <v>35.71428571428575</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L420" t="n">
         <v>41.02999999999999</v>
@@ -21853,7 +21873,7 @@
         <v>58.1</v>
       </c>
       <c r="K421" t="n">
-        <v>28.5714285714285</v>
+        <v>81.81818181818159</v>
       </c>
       <c r="L421" t="n">
         <v>41.07</v>
@@ -21904,7 +21924,7 @@
         <v>58.40000000000001</v>
       </c>
       <c r="K422" t="n">
-        <v>33.33333333333333</v>
+        <v>77.7777777777776</v>
       </c>
       <c r="L422" t="n">
         <v>41.19</v>
@@ -21955,7 +21975,7 @@
         <v>58.50000000000001</v>
       </c>
       <c r="K423" t="n">
-        <v>35.48387096774196</v>
+        <v>77.7777777777776</v>
       </c>
       <c r="L423" t="n">
         <v>41.27</v>
@@ -22006,7 +22026,7 @@
         <v>58.60000000000001</v>
       </c>
       <c r="K424" t="n">
-        <v>49.99999999999987</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L424" t="n">
         <v>41.33000000000001</v>
@@ -22057,7 +22077,7 @@
         <v>58.60000000000001</v>
       </c>
       <c r="K425" t="n">
-        <v>41.66666666666657</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L425" t="n">
         <v>41.39000000000001</v>
@@ -22108,7 +22128,7 @@
         <v>58.70000000000001</v>
       </c>
       <c r="K426" t="n">
-        <v>43.99999999999994</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L426" t="n">
         <v>41.46000000000001</v>
@@ -22159,7 +22179,7 @@
         <v>58.70000000000001</v>
       </c>
       <c r="K427" t="n">
-        <v>43.99999999999994</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L427" t="n">
         <v>41.51000000000001</v>
@@ -22210,7 +22230,7 @@
         <v>58.90000000000001</v>
       </c>
       <c r="K428" t="n">
-        <v>46.15384615384596</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L428" t="n">
         <v>41.58000000000001</v>
@@ -22261,7 +22281,7 @@
         <v>59.00000000000001</v>
       </c>
       <c r="K429" t="n">
-        <v>40.74074074074049</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L429" t="n">
         <v>41.63000000000001</v>
@@ -22312,7 +22332,7 @@
         <v>59.20000000000001</v>
       </c>
       <c r="K430" t="n">
-        <v>42.85714285714278</v>
+        <v>63.6363636363634</v>
       </c>
       <c r="L430" t="n">
         <v>41.69000000000001</v>
@@ -22363,7 +22383,7 @@
         <v>59.20000000000001</v>
       </c>
       <c r="K431" t="n">
-        <v>40.74074074074064</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L431" t="n">
         <v>41.76000000000001</v>
@@ -22414,7 +22434,7 @@
         <v>59.20000000000001</v>
       </c>
       <c r="K432" t="n">
-        <v>72.72727272727246</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L432" t="n">
         <v>41.8</v>
@@ -22465,7 +22485,7 @@
         <v>59.30000000000001</v>
       </c>
       <c r="K433" t="n">
-        <v>55.5555555555552</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L433" t="n">
         <v>41.82000000000001</v>
@@ -22516,7 +22536,7 @@
         <v>59.50000000000001</v>
       </c>
       <c r="K434" t="n">
-        <v>57.89473684210494</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L434" t="n">
         <v>41.87</v>
@@ -22567,7 +22587,7 @@
         <v>59.90000000000001</v>
       </c>
       <c r="K435" t="n">
-        <v>30.43478260869563</v>
+        <v>0</v>
       </c>
       <c r="L435" t="n">
         <v>41.88</v>
@@ -22618,7 +22638,7 @@
         <v>60.00000000000001</v>
       </c>
       <c r="K436" t="n">
-        <v>24.99999999999993</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L436" t="n">
         <v>41.87</v>
@@ -22669,7 +22689,7 @@
         <v>60.10000000000002</v>
       </c>
       <c r="K437" t="n">
-        <v>13.04347826086938</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L437" t="n">
         <v>41.85000000000001</v>
@@ -22720,7 +22740,7 @@
         <v>60.30000000000002</v>
       </c>
       <c r="K438" t="n">
-        <v>19.99999999999989</v>
+        <v>-7.692307692307187</v>
       </c>
       <c r="L438" t="n">
         <v>41.83000000000001</v>
@@ -22771,7 +22791,7 @@
         <v>60.30000000000002</v>
       </c>
       <c r="K439" t="n">
-        <v>16.66666666666677</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L439" t="n">
         <v>41.82000000000001</v>
@@ -22822,7 +22842,7 @@
         <v>60.40000000000001</v>
       </c>
       <c r="K440" t="n">
-        <v>16.66666666666652</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L440" t="n">
         <v>41.8</v>
@@ -22873,7 +22893,7 @@
         <v>60.40000000000001</v>
       </c>
       <c r="K441" t="n">
-        <v>21.7391304347825</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L441" t="n">
         <v>41.78000000000001</v>
@@ -22924,7 +22944,7 @@
         <v>60.50000000000001</v>
       </c>
       <c r="K442" t="n">
-        <v>4.761904761904826</v>
+        <v>-16.66666666666637</v>
       </c>
       <c r="L442" t="n">
         <v>41.75000000000001</v>
@@ -22975,7 +22995,7 @@
         <v>60.50000000000001</v>
       </c>
       <c r="K443" t="n">
-        <v>0</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L443" t="n">
         <v>41.73</v>
@@ -23026,7 +23046,7 @@
         <v>60.60000000000001</v>
       </c>
       <c r="K444" t="n">
-        <v>0</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L444" t="n">
         <v>41.68000000000001</v>
@@ -23077,7 +23097,7 @@
         <v>60.8</v>
       </c>
       <c r="K445" t="n">
-        <v>9.090909090908914</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L445" t="n">
         <v>41.69000000000001</v>
@@ -23128,7 +23148,7 @@
         <v>61.1</v>
       </c>
       <c r="K446" t="n">
-        <v>-8.333333333333481</v>
+        <v>0</v>
       </c>
       <c r="L446" t="n">
         <v>41.68000000000001</v>
@@ -23179,7 +23199,7 @@
         <v>61.1</v>
       </c>
       <c r="K447" t="n">
-        <v>-8.333333333333481</v>
+        <v>-25.00000000000089</v>
       </c>
       <c r="L447" t="n">
         <v>41.68000000000001</v>
@@ -23230,7 +23250,7 @@
         <v>61.6</v>
       </c>
       <c r="K448" t="n">
-        <v>-33.33333333333333</v>
+        <v>-53.84615384615478</v>
       </c>
       <c r="L448" t="n">
         <v>41.61000000000001</v>
@@ -23281,7 +23301,7 @@
         <v>61.8</v>
       </c>
       <c r="K449" t="n">
-        <v>-21.42857142857125</v>
+        <v>-42.85714285714271</v>
       </c>
       <c r="L449" t="n">
         <v>41.56000000000001</v>
@@ -23332,7 +23352,7 @@
         <v>61.8</v>
       </c>
       <c r="K450" t="n">
-        <v>-30.76923076923073</v>
+        <v>-42.85714285714271</v>
       </c>
       <c r="L450" t="n">
         <v>41.50000000000001</v>
@@ -23383,7 +23403,7 @@
         <v>61.8</v>
       </c>
       <c r="K451" t="n">
-        <v>-30.76923076923073</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L451" t="n">
         <v>41.44</v>
@@ -23434,7 +23454,7 @@
         <v>62.5</v>
       </c>
       <c r="K452" t="n">
-        <v>-3.030303030303082</v>
+        <v>9.999999999999822</v>
       </c>
       <c r="L452" t="n">
         <v>41.46</v>
@@ -23485,7 +23505,7 @@
         <v>62.5</v>
       </c>
       <c r="K453" t="n">
-        <v>0</v>
+        <v>15.78947368421045</v>
       </c>
       <c r="L453" t="n">
         <v>41.48</v>
@@ -23536,7 +23556,7 @@
         <v>63</v>
       </c>
       <c r="K454" t="n">
-        <v>-20.00000000000016</v>
+        <v>-18.18181818181815</v>
       </c>
       <c r="L454" t="n">
         <v>41.45999999999999</v>
@@ -23587,7 +23607,7 @@
         <v>63.4</v>
       </c>
       <c r="K455" t="n">
-        <v>2.857142857142707</v>
+        <v>13.04347826086946</v>
       </c>
       <c r="L455" t="n">
         <v>41.45999999999999</v>
@@ -23638,7 +23658,7 @@
         <v>63.4</v>
       </c>
       <c r="K456" t="n">
-        <v>5.882352941176372</v>
+        <v>13.04347826086946</v>
       </c>
       <c r="L456" t="n">
         <v>41.48999999999999</v>
@@ -23689,7 +23709,7 @@
         <v>63.8</v>
       </c>
       <c r="K457" t="n">
-        <v>-2.702702702702755</v>
+        <v>18.18181818181815</v>
       </c>
       <c r="L457" t="n">
         <v>41.48</v>
@@ -23740,7 +23760,7 @@
         <v>64.40000000000001</v>
       </c>
       <c r="K458" t="n">
-        <v>7.317073170731661</v>
+        <v>30.76923076923064</v>
       </c>
       <c r="L458" t="n">
         <v>41.58</v>
@@ -23791,7 +23811,7 @@
         <v>64.60000000000001</v>
       </c>
       <c r="K459" t="n">
-        <v>2.32558139534871</v>
+        <v>21.42857142857119</v>
       </c>
       <c r="L459" t="n">
         <v>41.64</v>
@@ -23842,7 +23862,7 @@
         <v>64.60000000000001</v>
       </c>
       <c r="K460" t="n">
-        <v>0</v>
+        <v>21.42857142857119</v>
       </c>
       <c r="L460" t="n">
         <v>41.7</v>
@@ -23893,7 +23913,7 @@
         <v>65.2</v>
       </c>
       <c r="K461" t="n">
-        <v>-12.49999999999991</v>
+        <v>-25.92592592592574</v>
       </c>
       <c r="L461" t="n">
         <v>41.7</v>
@@ -23944,7 +23964,7 @@
         <v>65.2</v>
       </c>
       <c r="K462" t="n">
-        <v>-10.63829787234044</v>
+        <v>-25.92592592592574</v>
       </c>
       <c r="L462" t="n">
         <v>41.63</v>
@@ -23995,7 +24015,7 @@
         <v>65.3</v>
       </c>
       <c r="K463" t="n">
-        <v>-8.333333333333469</v>
+        <v>-4.347826086956589</v>
       </c>
       <c r="L463" t="n">
         <v>41.57000000000001</v>
@@ -24046,7 +24066,7 @@
         <v>65.39999999999999</v>
       </c>
       <c r="K464" t="n">
-        <v>-8.333333333333332</v>
+        <v>-29.99999999999982</v>
       </c>
       <c r="L464" t="n">
         <v>41.55</v>
@@ -24148,7 +24168,7 @@
         <v>66.19999999999999</v>
       </c>
       <c r="K466" t="n">
-        <v>1.960784313725523</v>
+        <v>8.333333333333481</v>
       </c>
       <c r="L466" t="n">
         <v>41.53000000000001</v>
@@ -24199,7 +24219,7 @@
         <v>66.29999999999998</v>
       </c>
       <c r="K467" t="n">
-        <v>0</v>
+        <v>-26.31578947368453</v>
       </c>
       <c r="L467" t="n">
         <v>41.54000000000001</v>
@@ -24250,7 +24270,7 @@
         <v>66.39999999999998</v>
       </c>
       <c r="K468" t="n">
-        <v>12.50000000000009</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L468" t="n">
         <v>41.50000000000001</v>
@@ -24301,7 +24321,7 @@
         <v>66.49999999999997</v>
       </c>
       <c r="K469" t="n">
-        <v>6.382978723404239</v>
+        <v>-15.78947368421068</v>
       </c>
       <c r="L469" t="n">
         <v>41.47000000000001</v>
@@ -24352,7 +24372,7 @@
         <v>66.49999999999997</v>
       </c>
       <c r="K470" t="n">
-        <v>6.382978723404239</v>
+        <v>23.07692307692341</v>
       </c>
       <c r="L470" t="n">
         <v>41.44000000000001</v>
@@ -24403,7 +24423,7 @@
         <v>66.69999999999997</v>
       </c>
       <c r="K471" t="n">
-        <v>2.040816326530509</v>
+        <v>6.666666666666414</v>
       </c>
       <c r="L471" t="n">
         <v>41.45000000000001</v>
@@ -24454,7 +24474,7 @@
         <v>66.69999999999997</v>
       </c>
       <c r="K472" t="n">
-        <v>-14.28571428571441</v>
+        <v>0</v>
       </c>
       <c r="L472" t="n">
         <v>41.46000000000002</v>
@@ -24505,7 +24525,7 @@
         <v>66.79999999999997</v>
       </c>
       <c r="K473" t="n">
-        <v>-16.27906976744188</v>
+        <v>0</v>
       </c>
       <c r="L473" t="n">
         <v>41.45000000000001</v>
@@ -24556,7 +24576,7 @@
         <v>66.79999999999997</v>
       </c>
       <c r="K474" t="n">
-        <v>-5.263157894736773</v>
+        <v>-75.00000000000088</v>
       </c>
       <c r="L474" t="n">
         <v>41.45000000000001</v>
@@ -24607,7 +24627,7 @@
         <v>66.79999999999997</v>
       </c>
       <c r="K475" t="n">
-        <v>-17.6470588235294</v>
+        <v>-66.66666666666863</v>
       </c>
       <c r="L475" t="n">
         <v>41.39000000000001</v>
@@ -24658,7 +24678,7 @@
         <v>66.99999999999997</v>
       </c>
       <c r="K476" t="n">
-        <v>-11.11111111111116</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L476" t="n">
         <v>41.37</v>
@@ -24709,7 +24729,7 @@
         <v>67.49999999999997</v>
       </c>
       <c r="K477" t="n">
-        <v>13.51351351351361</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L477" t="n">
         <v>41.41</v>
@@ -24760,7 +24780,7 @@
         <v>67.59999999999997</v>
       </c>
       <c r="K478" t="n">
-        <v>0</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L478" t="n">
         <v>41.45</v>
@@ -24811,7 +24831,7 @@
         <v>67.59999999999997</v>
       </c>
       <c r="K479" t="n">
-        <v>6.666666666666857</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L479" t="n">
         <v>41.5</v>
@@ -24862,7 +24882,7 @@
         <v>68.09999999999997</v>
       </c>
       <c r="K480" t="n">
-        <v>-8.571428571428594</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L480" t="n">
         <v>41.5</v>
@@ -24913,7 +24933,7 @@
         <v>68.09999999999997</v>
       </c>
       <c r="K481" t="n">
-        <v>10.34482758620693</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L481" t="n">
         <v>41.52</v>
@@ -24964,7 +24984,7 @@
         <v>68.59999999999997</v>
       </c>
       <c r="K482" t="n">
-        <v>23.52941176470605</v>
+        <v>44.44444444444436</v>
       </c>
       <c r="L482" t="n">
         <v>41.59</v>
@@ -25015,7 +25035,7 @@
         <v>68.59999999999997</v>
       </c>
       <c r="K483" t="n">
-        <v>21.2121212121215</v>
+        <v>44.44444444444436</v>
       </c>
       <c r="L483" t="n">
         <v>41.67</v>
@@ -25066,7 +25086,7 @@
         <v>68.59999999999997</v>
       </c>
       <c r="K484" t="n">
-        <v>25.00000000000011</v>
+        <v>44.44444444444436</v>
       </c>
       <c r="L484" t="n">
         <v>41.75</v>
@@ -25117,7 +25137,7 @@
         <v>68.69999999999996</v>
       </c>
       <c r="K485" t="n">
-        <v>3.703703703703792</v>
+        <v>29.41176470588255</v>
       </c>
       <c r="L485" t="n">
         <v>41.82</v>
@@ -25168,7 +25188,7 @@
         <v>68.89999999999996</v>
       </c>
       <c r="K486" t="n">
-        <v>18.5185185185187</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L486" t="n">
         <v>41.89</v>
@@ -25219,7 +25239,7 @@
         <v>68.99999999999997</v>
       </c>
       <c r="K487" t="n">
-        <v>18.51851851851859</v>
+        <v>0</v>
       </c>
       <c r="L487" t="n">
         <v>41.90000000000001</v>
@@ -25270,7 +25290,7 @@
         <v>68.99999999999997</v>
       </c>
       <c r="K488" t="n">
-        <v>15.38461538461536</v>
+        <v>0</v>
       </c>
       <c r="L488" t="n">
         <v>41.90000000000001</v>
@@ -25321,7 +25341,7 @@
         <v>68.99999999999997</v>
       </c>
       <c r="K489" t="n">
-        <v>20</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L489" t="n">
         <v>41.90000000000001</v>
@@ -25372,7 +25392,7 @@
         <v>68.99999999999997</v>
       </c>
       <c r="K490" t="n">
-        <v>20</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L490" t="n">
         <v>41.95</v>
@@ -25423,7 +25443,7 @@
         <v>68.99999999999997</v>
       </c>
       <c r="K491" t="n">
-        <v>30.43478260869582</v>
+        <v>0</v>
       </c>
       <c r="L491" t="n">
         <v>42.00000000000001</v>
@@ -25474,7 +25494,7 @@
         <v>68.99999999999997</v>
       </c>
       <c r="K492" t="n">
-        <v>30.43478260869582</v>
+        <v>0</v>
       </c>
       <c r="L492" t="n">
         <v>42.00000000000001</v>
@@ -25525,7 +25545,7 @@
         <v>68.99999999999997</v>
       </c>
       <c r="K493" t="n">
-        <v>36.36363636363619</v>
+        <v>0</v>
       </c>
       <c r="L493" t="n">
         <v>42.00000000000001</v>
@@ -25576,7 +25596,7 @@
         <v>68.99999999999997</v>
       </c>
       <c r="K494" t="n">
-        <v>36.36363636363619</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L494" t="n">
         <v>42.00000000000001</v>
@@ -25627,7 +25647,7 @@
         <v>69.19999999999997</v>
       </c>
       <c r="K495" t="n">
-        <v>24.9999999999997</v>
+        <v>-99.99999999999764</v>
       </c>
       <c r="L495" t="n">
         <v>41.99000000000001</v>
@@ -25678,7 +25698,7 @@
         <v>69.19999999999997</v>
       </c>
       <c r="K496" t="n">
-        <v>18.18181818181809</v>
+        <v>-100</v>
       </c>
       <c r="L496" t="n">
         <v>41.96000000000001</v>
@@ -25729,7 +25749,7 @@
         <v>69.39999999999998</v>
       </c>
       <c r="K497" t="n">
-        <v>5.263157894736901</v>
+        <v>0</v>
       </c>
       <c r="L497" t="n">
         <v>41.96000000000001</v>
@@ -25831,7 +25851,7 @@
         <v>69.49999999999997</v>
       </c>
       <c r="K499" t="n">
-        <v>5.263157894736901</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L499" t="n">
         <v>41.97000000000001</v>
@@ -25882,7 +25902,7 @@
         <v>69.79999999999997</v>
       </c>
       <c r="K500" t="n">
-        <v>52.94117647058806</v>
+        <v>50</v>
       </c>
       <c r="L500" t="n">
         <v>42.01000000000001</v>
@@ -25933,7 +25953,7 @@
         <v>69.79999999999997</v>
       </c>
       <c r="K501" t="n">
-        <v>52.94117647058806</v>
+        <v>50</v>
       </c>
       <c r="L501" t="n">
         <v>42.05</v>
@@ -25984,7 +26004,7 @@
         <v>69.89999999999998</v>
       </c>
       <c r="K502" t="n">
-        <v>38.46153846153813</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L502" t="n">
         <v>42.10000000000001</v>
@@ -26035,7 +26055,7 @@
         <v>70.09999999999998</v>
       </c>
       <c r="K503" t="n">
-        <v>19.99999999999962</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L503" t="n">
         <v>42.13000000000001</v>
@@ -26086,7 +26106,7 @@
         <v>70.19999999999997</v>
       </c>
       <c r="K504" t="n">
-        <v>12.50000000000011</v>
+        <v>40.00000000000057</v>
       </c>
       <c r="L504" t="n">
         <v>42.15000000000001</v>
@@ -26137,7 +26157,7 @@
         <v>70.19999999999997</v>
       </c>
       <c r="K505" t="n">
-        <v>20.0000000000001</v>
+        <v>40.00000000000057</v>
       </c>
       <c r="L505" t="n">
         <v>42.19</v>
@@ -26188,7 +26208,7 @@
         <v>70.19999999999997</v>
       </c>
       <c r="K506" t="n">
-        <v>7.692307692307734</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L506" t="n">
         <v>42.23</v>
@@ -26239,7 +26259,7 @@
         <v>70.29999999999997</v>
       </c>
       <c r="K507" t="n">
-        <v>23.07692307692291</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L507" t="n">
         <v>42.26000000000001</v>
@@ -26290,7 +26310,7 @@
         <v>70.59999999999997</v>
       </c>
       <c r="K508" t="n">
-        <v>0</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L508" t="n">
         <v>42.26000000000001</v>
@@ -26341,7 +26361,7 @@
         <v>70.59999999999997</v>
       </c>
       <c r="K509" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L509" t="n">
         <v>42.25</v>
@@ -26392,7 +26412,7 @@
         <v>70.79999999999997</v>
       </c>
       <c r="K510" t="n">
-        <v>11.11111111111129</v>
+        <v>-19.99999999999957</v>
       </c>
       <c r="L510" t="n">
         <v>42.23</v>
@@ -26443,7 +26463,7 @@
         <v>71.09999999999997</v>
       </c>
       <c r="K511" t="n">
-        <v>-4.761904761904842</v>
+        <v>-50.00000000000059</v>
       </c>
       <c r="L511" t="n">
         <v>42.18</v>
@@ -26494,7 +26514,7 @@
         <v>71.09999999999997</v>
       </c>
       <c r="K512" t="n">
-        <v>-4.761904761904842</v>
+        <v>-40.00000000000043</v>
       </c>
       <c r="L512" t="n">
         <v>42.12</v>
@@ -26545,7 +26565,7 @@
         <v>71.39999999999996</v>
       </c>
       <c r="K513" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50.00000000000059</v>
       </c>
       <c r="L513" t="n">
         <v>42.05</v>
@@ -26596,7 +26616,7 @@
         <v>72.09999999999997</v>
       </c>
       <c r="K514" t="n">
-        <v>9.677419354838635</v>
+        <v>5.263157894736566</v>
       </c>
       <c r="L514" t="n">
         <v>42.06</v>
@@ -26647,7 +26667,7 @@
         <v>72.39999999999996</v>
       </c>
       <c r="K515" t="n">
-        <v>6.250000000000111</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L515" t="n">
         <v>42.04000000000001</v>
@@ -26698,7 +26718,7 @@
         <v>72.49999999999997</v>
       </c>
       <c r="K516" t="n">
-        <v>9.090909090909228</v>
+        <v>-9.090909090908886</v>
       </c>
       <c r="L516" t="n">
         <v>42.03000000000001</v>
@@ -26749,7 +26769,7 @@
         <v>72.69999999999997</v>
       </c>
       <c r="K517" t="n">
-        <v>-3.030303030303076</v>
+        <v>-4.76190476190481</v>
       </c>
       <c r="L517" t="n">
         <v>41.99</v>
@@ -26800,7 +26820,7 @@
         <v>73.09999999999997</v>
       </c>
       <c r="K518" t="n">
-        <v>8.108108108108055</v>
+        <v>11.99999999999989</v>
       </c>
       <c r="L518" t="n">
         <v>42.02</v>
@@ -26851,7 +26871,7 @@
         <v>73.39999999999996</v>
       </c>
       <c r="K519" t="n">
-        <v>-2.564102564102606</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L519" t="n">
         <v>42.02</v>

--- a/BackTest/2019-10-16 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-16 BackTest LAMB.xlsx
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -7031,17 +7031,13 @@
         <v>39.61500000000001</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K190" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
@@ -7070,323 +7066,287 @@
         <v>39.61166666666668</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C192" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D192" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E192" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F192" t="n">
+        <v>10</v>
+      </c>
+      <c r="G192" t="n">
+        <v>39.60833333333335</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C193" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D193" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E193" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F193" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G193" t="n">
+        <v>39.60500000000002</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="C194" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="D194" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="E194" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="F194" t="n">
+        <v>27660.3971</v>
+      </c>
+      <c r="G194" t="n">
+        <v>39.59500000000002</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C195" t="n">
         <v>39.2</v>
       </c>
-      <c r="K191" t="n">
+      <c r="D195" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E195" t="n">
         <v>39.2</v>
       </c>
-      <c r="L191" t="inlineStr">
+      <c r="F195" t="n">
+        <v>5500</v>
+      </c>
+      <c r="G195" t="n">
+        <v>39.58666666666669</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="K195" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C196" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D196" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E196" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G196" t="n">
+        <v>39.58000000000002</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K196" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C197" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D197" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E197" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F197" t="n">
+        <v>25133.1436</v>
+      </c>
+      <c r="G197" t="n">
+        <v>39.57333333333335</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K197" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C198" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D198" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E198" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F198" t="n">
+        <v>41000</v>
+      </c>
+      <c r="G198" t="n">
+        <v>39.56833333333336</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K198" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="C192" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="D192" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E192" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="F192" t="n">
-        <v>10</v>
-      </c>
-      <c r="G192" t="n">
-        <v>39.60833333333335</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K192" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="C193" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="D193" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E193" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="F193" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G193" t="n">
-        <v>39.60500000000002</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K193" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="C194" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="D194" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="E194" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="F194" t="n">
-        <v>27660.3971</v>
-      </c>
-      <c r="G194" t="n">
-        <v>39.59500000000002</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="K194" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="C195" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="D195" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E195" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="F195" t="n">
-        <v>5500</v>
-      </c>
-      <c r="G195" t="n">
-        <v>39.58666666666669</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K195" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="C196" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="D196" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="E196" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="F196" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G196" t="n">
-        <v>39.58000000000002</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K196" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="C197" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="D197" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="E197" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="F197" t="n">
-        <v>25133.1436</v>
-      </c>
-      <c r="G197" t="n">
-        <v>39.57333333333335</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K197" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="C198" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="D198" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E198" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="F198" t="n">
-        <v>41000</v>
-      </c>
-      <c r="G198" t="n">
-        <v>39.56833333333336</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K198" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7423,7 +7383,7 @@
         <v>39.3</v>
       </c>
       <c r="K199" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -7466,7 +7426,7 @@
         <v>39.3</v>
       </c>
       <c r="K200" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -7509,7 +7469,7 @@
         <v>39.3</v>
       </c>
       <c r="K201" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -7552,7 +7512,7 @@
         <v>39.3</v>
       </c>
       <c r="K202" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -7595,7 +7555,7 @@
         <v>39.3</v>
       </c>
       <c r="K203" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -7629,16 +7589,14 @@
         <v>39.54166666666671</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -7672,16 +7630,14 @@
         <v>39.53500000000005</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -7715,16 +7671,14 @@
         <v>39.53333333333338</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -7758,16 +7712,14 @@
         <v>39.52833333333339</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -7801,16 +7753,14 @@
         <v>39.52500000000006</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -7844,16 +7794,14 @@
         <v>39.52000000000005</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>39.5</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -7887,16 +7835,14 @@
         <v>39.50833333333338</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -7930,16 +7876,14 @@
         <v>39.50333333333337</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -7973,16 +7917,14 @@
         <v>39.49333333333337</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -8016,16 +7958,14 @@
         <v>39.48666666666671</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>39.1</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -8059,16 +7999,14 @@
         <v>39.4766666666667</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -8102,16 +8040,14 @@
         <v>39.46333333333337</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>39.1</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -8145,16 +8081,14 @@
         <v>39.45000000000003</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>39.1</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -8188,16 +8122,14 @@
         <v>39.44000000000003</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>39.1</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -8231,16 +8163,14 @@
         <v>39.4266666666667</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>39.1</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -8274,16 +8204,14 @@
         <v>39.41333333333336</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>39.1</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -8317,16 +8245,14 @@
         <v>39.40333333333336</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>39.1</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -8360,16 +8286,14 @@
         <v>39.39666666666669</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>39.1</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -8403,16 +8327,14 @@
         <v>39.38833333333336</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -8446,16 +8368,14 @@
         <v>39.38000000000002</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>39.1</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -8489,16 +8409,14 @@
         <v>39.37333333333336</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -8532,16 +8450,14 @@
         <v>39.36166666666669</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>39.1</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -8575,16 +8491,14 @@
         <v>39.34666666666669</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -8618,16 +8532,14 @@
         <v>39.33333333333335</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>39.1</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -8661,16 +8573,14 @@
         <v>39.32833333333335</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>39.1</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -8704,16 +8614,14 @@
         <v>39.32166666666668</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -8747,16 +8655,14 @@
         <v>39.32333333333334</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>39.6</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -8790,16 +8696,14 @@
         <v>39.31666666666668</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -8833,16 +8737,14 @@
         <v>39.30666666666666</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -8876,16 +8778,14 @@
         <v>39.29666666666667</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -8919,16 +8819,14 @@
         <v>39.29166666666667</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>39.1</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -8962,16 +8860,14 @@
         <v>39.28166666666667</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -9005,16 +8901,14 @@
         <v>39.26833333333333</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>39</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -9048,16 +8942,14 @@
         <v>39.25666666666666</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>39.1</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -9091,16 +8983,14 @@
         <v>39.24833333333333</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>39.1</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -9134,16 +9024,14 @@
         <v>39.24166666666667</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -9177,16 +9065,14 @@
         <v>39.23833333333334</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>39.5</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -9220,16 +9106,14 @@
         <v>39.23500000000001</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>39.5</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -9263,16 +9147,14 @@
         <v>39.23333333333334</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -9306,16 +9188,14 @@
         <v>39.23500000000001</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -9349,16 +9229,14 @@
         <v>39.24166666666667</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -9392,16 +9270,14 @@
         <v>39.24833333333334</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>39.8</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -9435,16 +9311,14 @@
         <v>39.26000000000001</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>39.9</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -9485,7 +9359,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -9526,7 +9400,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -9567,7 +9441,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -9608,7 +9482,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -9642,16 +9516,14 @@
         <v>39.27333333333336</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -9685,16 +9557,14 @@
         <v>39.27500000000003</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -9728,16 +9598,14 @@
         <v>39.27666666666669</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -9771,16 +9639,14 @@
         <v>39.2866666666667</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -9814,16 +9680,14 @@
         <v>39.29000000000003</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -9857,16 +9721,14 @@
         <v>39.29333333333337</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -9900,16 +9762,14 @@
         <v>39.29666666666671</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -9943,16 +9803,14 @@
         <v>39.3016666666667</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -9986,16 +9844,14 @@
         <v>39.3066666666667</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>39.6</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -10029,16 +9885,14 @@
         <v>39.30833333333337</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -10079,7 +9933,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -10113,16 +9967,14 @@
         <v>39.31500000000003</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -10156,16 +10008,14 @@
         <v>39.31666666666669</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -10199,16 +10049,14 @@
         <v>39.32166666666669</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>39.6</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -10242,16 +10090,14 @@
         <v>39.32333333333335</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -10292,7 +10138,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -10326,16 +10172,14 @@
         <v>39.32666666666668</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -10369,16 +10213,14 @@
         <v>39.32500000000002</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -10412,16 +10254,14 @@
         <v>39.32833333333335</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -10455,16 +10295,14 @@
         <v>39.33333333333336</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -10498,16 +10336,14 @@
         <v>39.33333333333336</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -10541,16 +10377,14 @@
         <v>39.34000000000002</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
-        <v>39.1</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -10584,16 +10418,14 @@
         <v>39.34500000000003</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -10627,16 +10459,14 @@
         <v>39.34500000000003</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -10670,16 +10500,14 @@
         <v>39.34666666666669</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>39.1</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -10713,16 +10541,14 @@
         <v>39.34833333333336</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -10756,16 +10582,14 @@
         <v>39.35333333333336</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -10799,16 +10623,14 @@
         <v>39.3566666666667</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>39.5</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -10842,16 +10664,14 @@
         <v>39.36333333333337</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -10885,16 +10705,14 @@
         <v>39.36833333333337</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -10935,7 +10753,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -10969,16 +10787,14 @@
         <v>39.37166666666671</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -11012,16 +10828,14 @@
         <v>39.37500000000004</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -11055,16 +10869,14 @@
         <v>39.37333333333338</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -11098,16 +10910,14 @@
         <v>39.37833333333338</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -11141,16 +10951,14 @@
         <v>39.38333333333339</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -11184,16 +10992,14 @@
         <v>39.38833333333339</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -11227,16 +11033,14 @@
         <v>39.38500000000006</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -11270,16 +11074,14 @@
         <v>39.38166666666673</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -11313,16 +11115,14 @@
         <v>39.37666666666674</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -11356,16 +11156,14 @@
         <v>39.38000000000007</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -11399,16 +11197,14 @@
         <v>39.38666666666674</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -11442,16 +11238,14 @@
         <v>39.39000000000007</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -11485,16 +11279,14 @@
         <v>39.39166666666674</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>39.5</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -11528,16 +11320,14 @@
         <v>39.39166666666674</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -11571,16 +11361,14 @@
         <v>39.40166666666673</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>39.6</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -11614,16 +11402,14 @@
         <v>39.40666666666674</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -11657,16 +11443,14 @@
         <v>39.41166666666673</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -11700,16 +11484,14 @@
         <v>39.4083333333334</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>39.1</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -11743,16 +11525,14 @@
         <v>39.40333333333339</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -11786,16 +11566,14 @@
         <v>39.40500000000006</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -11829,16 +11607,14 @@
         <v>39.40166666666672</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -11872,16 +11648,14 @@
         <v>39.40333333333339</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>39.5</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -11915,16 +11689,14 @@
         <v>39.39666666666672</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -11958,16 +11730,14 @@
         <v>39.39166666666672</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>39.5</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -12001,16 +11771,14 @@
         <v>39.38500000000004</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>39.5</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -12044,16 +11812,14 @@
         <v>39.38666666666671</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>39.5</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -12087,16 +11853,14 @@
         <v>39.38500000000004</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -12130,16 +11894,14 @@
         <v>39.38333333333338</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -12173,16 +11935,14 @@
         <v>39.38333333333338</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -12216,16 +11976,14 @@
         <v>39.38000000000004</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -12259,16 +12017,14 @@
         <v>39.37833333333337</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -12302,16 +12058,14 @@
         <v>39.37666666666671</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -12345,16 +12099,14 @@
         <v>39.37500000000004</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -12388,16 +12140,14 @@
         <v>39.37333333333338</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -12431,16 +12181,14 @@
         <v>39.37166666666671</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -12474,16 +12222,14 @@
         <v>39.37166666666671</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -12517,16 +12263,14 @@
         <v>39.36666666666672</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -12560,16 +12304,14 @@
         <v>39.36000000000005</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -12603,16 +12345,14 @@
         <v>39.35833333333338</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -12646,16 +12386,14 @@
         <v>39.35333333333339</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -12689,16 +12427,14 @@
         <v>39.35333333333339</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -12732,16 +12468,14 @@
         <v>39.35333333333339</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -12775,16 +12509,14 @@
         <v>39.35000000000006</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -12818,16 +12550,14 @@
         <v>39.34833333333339</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -12861,16 +12591,14 @@
         <v>39.34833333333339</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -12904,16 +12632,14 @@
         <v>39.34833333333339</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -12947,16 +12673,14 @@
         <v>39.34833333333339</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -12990,16 +12714,14 @@
         <v>39.35000000000006</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -13033,16 +12755,14 @@
         <v>39.35000000000006</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -13076,16 +12796,14 @@
         <v>39.3533333333334</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -13119,16 +12837,14 @@
         <v>39.3533333333334</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -13162,16 +12878,14 @@
         <v>39.35500000000006</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>39.5</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L333" t="inlineStr">
         <is>
@@ -13205,16 +12919,14 @@
         <v>39.36500000000007</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>39.5</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -13248,16 +12960,14 @@
         <v>39.37500000000008</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>39.8</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -13298,7 +13008,7 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -13339,7 +13049,7 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -13380,7 +13090,7 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -13421,7 +13131,7 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -13462,7 +13172,7 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -13503,7 +13213,7 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -13544,7 +13254,7 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L342" t="inlineStr">
         <is>
@@ -13585,7 +13295,7 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
@@ -13626,7 +13336,7 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L344" t="inlineStr">
         <is>
@@ -13667,7 +13377,7 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L345" t="inlineStr">
         <is>
@@ -13708,7 +13418,7 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L346" t="inlineStr">
         <is>
@@ -13749,7 +13459,7 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L347" t="inlineStr">
         <is>
@@ -13790,7 +13500,7 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L348" t="inlineStr">
         <is>
@@ -13831,7 +13541,7 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L349" t="inlineStr">
         <is>
@@ -13872,7 +13582,7 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L350" t="inlineStr">
         <is>
@@ -13913,7 +13623,7 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L351" t="inlineStr">
         <is>
@@ -13954,7 +13664,7 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L352" t="inlineStr">
         <is>
@@ -13991,19 +13701,19 @@
         <v>0</v>
       </c>
       <c r="I353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>1</v>
+        <v>1.059432989690722</v>
       </c>
     </row>
     <row r="354">
@@ -14032,17 +13742,11 @@
         <v>0</v>
       </c>
       <c r="I354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -14076,14 +13780,8 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -14117,14 +13815,8 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -14158,14 +13850,8 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -14199,14 +13885,8 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -14240,14 +13920,8 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="inlineStr"/>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -14281,14 +13955,8 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="inlineStr"/>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -14319,19 +13987,13 @@
         <v>0</v>
       </c>
       <c r="I361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="inlineStr"/>
       <c r="M361" t="n">
-        <v>1.035816326530612</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -14360,7 +14022,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
@@ -14395,7 +14057,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
@@ -14430,7 +14092,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>

--- a/BackTest/2019-10-16 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-16 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3421,7 +3421,7 @@
         <v>255875.8893</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>478707.8998</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>567781.0351</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>533874.2169999999</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>533874.2169999999</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>496621.8817</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>573883.6385999999</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>566919.6508999999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>578329.6508999999</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>578329.6508999999</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>577011.5907999999</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>504772.5377999999</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>504782.5377999999</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>503925.5533999999</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>487196.5353999999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>487196.5353999999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>480160.3967999999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>486365.4983999999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>365062.8028999999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>365072.8028999999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>358932.3607999999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>358932.3607999999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>361432.3607999999</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>355987.2354999999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>357811.3046999999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>357811.3046999999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>355811.3046999999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>315243.1895999999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>311767.3598999999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>311777.3598999999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-256953.7484</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-259237.3807</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-270966.6257</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-265387.3441</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-151367.3441</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-216580.8567</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-389044.7002</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-443854.7002</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -8503,10 +8503,14 @@
         <v>-915165.2208999998</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J246" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
@@ -8536,11 +8540,19 @@
         <v>-915165.2208999998</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J247" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +8581,19 @@
         <v>-915165.2208999998</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J248" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +8622,19 @@
         <v>-915165.2208999998</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J249" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,15 +8663,17 @@
         <v>-894544.1963999998</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>39.2</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L250" t="n">
@@ -8674,12 +8704,14 @@
         <v>-894544.1963999998</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>39.3</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8713,12 +8745,14 @@
         <v>-894544.1963999998</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>39.3</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8752,12 +8786,14 @@
         <v>-922204.5934999997</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>39.3</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8791,10 +8827,14 @@
         <v>-916704.5934999997</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="J254" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8828,10 +8868,14 @@
         <v>-916704.5934999997</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J255" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8865,10 +8909,14 @@
         <v>-916704.5934999997</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J256" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8902,10 +8950,14 @@
         <v>-875704.5934999997</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J257" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8939,10 +8991,14 @@
         <v>-875704.5934999997</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="J258" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8976,10 +9032,14 @@
         <v>-875704.5934999997</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="J259" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9013,10 +9073,14 @@
         <v>-875704.5934999997</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="J260" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9050,10 +9114,14 @@
         <v>-875704.5934999997</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="J261" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9087,10 +9155,14 @@
         <v>-875704.5934999997</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="J262" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9124,12 +9196,14 @@
         <v>-875704.5934999997</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>39.3</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9163,12 +9237,14 @@
         <v>-875704.5934999997</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>39.3</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9202,12 +9278,14 @@
         <v>-875704.5934999997</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>39.3</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9241,10 +9319,14 @@
         <v>-875704.5934999997</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="J266" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9278,10 +9360,14 @@
         <v>-859335.9659999998</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="J267" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9315,10 +9401,14 @@
         <v>-862356.6190999998</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="J268" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9352,10 +9442,14 @@
         <v>-862356.6190999998</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J269" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9389,10 +9483,14 @@
         <v>-862356.6190999998</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J270" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9426,10 +9524,14 @@
         <v>-863477.7571999998</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J271" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9463,12 +9565,14 @@
         <v>-863477.7571999998</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>39.1</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9502,12 +9606,14 @@
         <v>-863434.7571999998</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>39.1</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9541,12 +9647,14 @@
         <v>-863445.7571999998</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>39.2</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9580,12 +9688,14 @@
         <v>-863445.7571999998</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>39.1</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9619,12 +9729,14 @@
         <v>-863445.7571999998</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>39.1</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9658,12 +9770,14 @@
         <v>-863445.7571999998</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>39.1</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9697,12 +9811,14 @@
         <v>-863445.7571999998</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>39.1</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9736,12 +9852,14 @@
         <v>-863445.7571999998</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>39.1</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9775,12 +9893,14 @@
         <v>-863445.7571999998</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>39.1</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9814,12 +9934,14 @@
         <v>-863445.7571999998</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>39.1</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9853,12 +9975,14 @@
         <v>-863445.7571999998</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>39.1</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9892,12 +10016,14 @@
         <v>-863435.7571999998</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>39.1</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9931,12 +10057,14 @@
         <v>-863446.7571999998</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>39.4</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9970,12 +10098,14 @@
         <v>-863446.7571999998</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>39.1</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10009,12 +10139,14 @@
         <v>-863446.7571999998</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>39.1</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10048,12 +10180,14 @@
         <v>-784638.3333999998</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>39.1</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10087,12 +10221,14 @@
         <v>-785638.3333999998</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>39.6</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10126,10 +10262,14 @@
         <v>-785602.1042999998</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="J289" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10163,10 +10303,14 @@
         <v>-786581.7845999998</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="J290" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10200,10 +10344,14 @@
         <v>-786581.7845999998</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J291" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10237,10 +10385,14 @@
         <v>-807979.7158999998</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J292" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10274,12 +10426,14 @@
         <v>-542128.4949999999</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>39</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10316,7 +10470,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10350,10 +10506,14 @@
         <v>-559528.4949999999</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J295" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10387,12 +10547,14 @@
         <v>-559028.4949999999</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>39</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10426,12 +10588,14 @@
         <v>-517068.3868999999</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>39.1</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10465,12 +10629,14 @@
         <v>-517068.3868999999</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>39.3</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10504,12 +10670,14 @@
         <v>-517029.8899999998</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>39.3</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10543,12 +10711,14 @@
         <v>-518265.7498999998</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>39.5</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10582,12 +10752,14 @@
         <v>-518265.7498999998</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>39.4</v>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10621,12 +10793,14 @@
         <v>-518265.7498999998</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>39.4</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10660,12 +10834,14 @@
         <v>-394751.8132747473</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>39.4</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10699,12 +10875,14 @@
         <v>-370426.4261747474</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>39.6</v>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10741,7 +10919,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10775,12 +10955,12 @@
         <v>-371778.7874747473</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
-      </c>
-      <c r="I306" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="J306" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10817,7 +10997,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10854,7 +11036,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10891,7 +11075,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10928,7 +11114,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10965,7 +11153,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10999,10 +11189,14 @@
         <v>-388697.6084747473</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="J312" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11039,7 +11233,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11076,7 +11272,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11113,7 +11311,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11147,10 +11347,14 @@
         <v>-388697.6084747473</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="J316" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11187,7 +11391,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11221,10 +11427,14 @@
         <v>-385697.6084747473</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="J318" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11261,7 +11471,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11298,7 +11510,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11335,7 +11549,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11372,7 +11588,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11409,7 +11627,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11446,7 +11666,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11483,7 +11705,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11520,7 +11744,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11557,7 +11783,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11594,7 +11822,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11631,7 +11861,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11668,7 +11900,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11705,7 +11939,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11742,7 +11978,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11779,7 +12017,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11816,7 +12056,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11853,7 +12095,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11890,7 +12134,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11927,7 +12173,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11964,7 +12212,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12001,7 +12251,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12038,7 +12290,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12075,7 +12329,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12112,7 +12368,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12149,7 +12407,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12186,7 +12446,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12223,7 +12485,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12260,7 +12524,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12297,7 +12563,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12334,7 +12602,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12371,7 +12641,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12408,7 +12680,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12445,7 +12719,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12482,7 +12758,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12519,7 +12797,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12556,7 +12836,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12593,7 +12875,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12630,7 +12914,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12667,7 +12953,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12704,7 +12992,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12741,7 +13031,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12778,7 +13070,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12815,7 +13109,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12852,7 +13148,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12889,7 +13187,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12926,7 +13226,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12963,7 +13265,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13000,7 +13304,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13037,7 +13343,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13074,7 +13382,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13111,7 +13421,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13148,7 +13460,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13185,7 +13499,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13222,7 +13538,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13259,7 +13577,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13296,7 +13616,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13333,7 +13655,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13370,7 +13694,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13407,7 +13733,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13444,7 +13772,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13481,7 +13811,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13518,7 +13850,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13555,7 +13889,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13592,7 +13928,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13629,7 +13967,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13666,7 +14006,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13703,7 +14045,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13740,7 +14084,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13777,7 +14123,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13814,7 +14162,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13851,7 +14201,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13888,7 +14240,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13925,7 +14279,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13962,7 +14318,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13999,7 +14357,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14036,7 +14396,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14073,7 +14435,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14110,7 +14474,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14147,7 +14513,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14184,7 +14552,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14221,7 +14591,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14258,7 +14630,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14295,7 +14669,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14332,7 +14708,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14369,7 +14747,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14406,7 +14786,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14443,7 +14825,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14480,7 +14864,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14517,7 +14903,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14554,7 +14942,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14591,7 +14981,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14628,7 +15020,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14665,7 +15059,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14702,7 +15098,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14739,7 +15137,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14776,7 +15176,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14813,7 +15215,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14847,10 +15251,12 @@
         <v>-63749.81146735094</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14887,7 +15293,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14921,10 +15329,12 @@
         <v>-52949.81146735094</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14961,7 +15371,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14998,7 +15410,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15035,7 +15449,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15072,7 +15488,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15109,7 +15527,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15146,7 +15566,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15183,7 +15605,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15220,7 +15644,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15257,7 +15683,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15294,7 +15722,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15331,7 +15761,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15368,7 +15800,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15405,7 +15839,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15439,10 +15875,12 @@
         <v>-129402.2385673509</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15479,7 +15917,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15513,10 +15953,12 @@
         <v>-83774.12316735093</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15550,10 +15992,12 @@
         <v>4993.528632649075</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15587,10 +16031,12 @@
         <v>-6051.962967350924</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15624,10 +16070,12 @@
         <v>-6051.962967350924</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15661,10 +16109,12 @@
         <v>-60657.60136735093</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15698,10 +16148,12 @@
         <v>1020.190032649072</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15735,10 +16187,12 @@
         <v>1020.190032649072</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15772,10 +16226,12 @@
         <v>970.1900326490722</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15809,10 +16265,12 @@
         <v>3970.190032649072</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15846,10 +16304,12 @@
         <v>3947.273432649072</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15883,10 +16343,12 @@
         <v>42108.25883264907</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15923,7 +16385,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15960,7 +16424,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15994,10 +16460,12 @@
         <v>37971.27263264907</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16031,10 +16499,12 @@
         <v>25227.26533264908</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16068,10 +16538,12 @@
         <v>32727.26533264908</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16105,10 +16577,12 @@
         <v>-136640.4899673509</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16142,10 +16616,12 @@
         <v>-114777.4187673509</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16179,10 +16655,12 @@
         <v>-115583.1715673509</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16219,7 +16697,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16256,7 +16736,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16293,7 +16775,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16330,7 +16814,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16367,7 +16853,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16404,7 +16892,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16441,7 +16931,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16478,7 +16970,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16515,7 +17009,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16552,7 +17048,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16589,7 +17087,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16626,7 +17126,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16663,7 +17165,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16700,7 +17204,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16737,7 +17243,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16774,7 +17282,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16811,7 +17321,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16848,7 +17360,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16885,7 +17399,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16922,7 +17438,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16959,7 +17477,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16996,7 +17516,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17033,7 +17555,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17070,7 +17594,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17107,7 +17633,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17144,7 +17672,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17181,7 +17711,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17218,7 +17750,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17252,16 +17786,20 @@
         <v>81235.16576630526</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L481" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L481" t="n">
+        <v>1</v>
+      </c>
       <c r="M481" t="inlineStr"/>
     </row>
     <row r="482">
@@ -17287,11 +17825,17 @@
         <v>104334.6609586129</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17320,11 +17864,17 @@
         <v>90824.66095861295</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17353,11 +17903,17 @@
         <v>90824.66095861295</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17386,11 +17942,17 @@
         <v>112910.7809586129</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17419,11 +17981,17 @@
         <v>112910.7809586129</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17455,8 +18023,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17485,11 +18059,17 @@
         <v>113718.6725999614</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17518,11 +18098,17 @@
         <v>179920.6196999614</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17551,11 +18137,17 @@
         <v>179920.6196999614</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17584,11 +18176,17 @@
         <v>179920.6196999614</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17617,11 +18215,17 @@
         <v>136081.5460999614</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17650,11 +18254,17 @@
         <v>197628.9314999614</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17683,11 +18293,17 @@
         <v>179588.5478999614</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17716,11 +18332,17 @@
         <v>150853.0414999615</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17749,11 +18371,17 @@
         <v>143830.6535999615</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17785,8 +18413,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17818,8 +18452,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17851,8 +18491,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17884,8 +18530,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17917,8 +18569,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17950,8 +18608,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17983,8 +18647,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18016,8 +18686,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18049,8 +18725,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18082,8 +18764,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18115,8 +18803,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18148,8 +18842,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18181,8 +18881,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18211,13 +18917,19 @@
         <v>352923.5607999614</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L510" t="n">
-        <v>1</v>
+        <v>1.046020408163265</v>
       </c>
       <c r="M510" t="inlineStr"/>
     </row>
@@ -18244,7 +18956,7 @@
         <v>352953.5607999614</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18277,7 +18989,7 @@
         <v>352953.5607999614</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18310,7 +19022,7 @@
         <v>351563.3118999614</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18343,7 +19055,7 @@
         <v>351809.0775999614</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18376,7 +19088,7 @@
         <v>351809.0775999614</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18409,7 +19121,7 @@
         <v>350809.0775999614</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18442,7 +19154,7 @@
         <v>446727.1812999614</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18475,7 +19187,7 @@
         <v>429824.4880999614</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18508,7 +19220,7 @@
         <v>429824.4880999614</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18541,7 +19253,7 @@
         <v>387095.0346999614</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18574,7 +19286,7 @@
         <v>387095.0346999614</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18607,7 +19319,7 @@
         <v>553762.2806999615</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18640,7 +19352,7 @@
         <v>542552.2806999615</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18673,7 +19385,7 @@
         <v>542562.2806999615</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18706,7 +19418,7 @@
         <v>534126.9211999614</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18739,7 +19451,7 @@
         <v>411221.5811999615</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18772,7 +19484,7 @@
         <v>417706.4374999615</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18805,7 +19517,7 @@
         <v>354233.4871999614</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18838,7 +19550,7 @@
         <v>354233.4871999614</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18871,7 +19583,7 @@
         <v>342124.1952999614</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18904,7 +19616,7 @@
         <v>342124.1952999614</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18937,7 +19649,7 @@
         <v>325766.1952999614</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18970,7 +19682,7 @@
         <v>325766.1952999614</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19003,7 +19715,7 @@
         <v>325766.1952999614</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19036,7 +19748,7 @@
         <v>384597.1487999614</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19069,7 +19781,7 @@
         <v>384607.1487999614</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19102,7 +19814,7 @@
         <v>522481.0641999614</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19135,7 +19847,7 @@
         <v>522481.0641999614</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19168,7 +19880,7 @@
         <v>522224.1244999614</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19201,7 +19913,7 @@
         <v>522224.1244999614</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19234,7 +19946,7 @@
         <v>555817.6958999614</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19267,7 +19979,7 @@
         <v>555817.6958999614</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19795,7 +20507,7 @@
         <v>491277.0369475805</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19828,7 +20540,7 @@
         <v>588524.3654856419</v>
       </c>
       <c r="H559" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19861,7 +20573,7 @@
         <v>588524.3654856419</v>
       </c>
       <c r="H560" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19894,7 +20606,7 @@
         <v>646585.6287856419</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19927,7 +20639,7 @@
         <v>645477.5459856419</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19960,7 +20672,7 @@
         <v>637400.2144856419</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19993,7 +20705,7 @@
         <v>637400.2144856419</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20026,7 +20738,7 @@
         <v>637400.2144856419</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20059,7 +20771,7 @@
         <v>641339.6798856419</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20092,7 +20804,7 @@
         <v>590634.395585642</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20103,6 +20815,6 @@
       <c r="M567" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-16 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4114,7 +4114,7 @@
         <v>566919.6508999999</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>578329.6508999999</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>578329.6508999999</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>577011.5907999999</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>504772.5377999999</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>504782.5377999999</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>503925.5533999999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>487196.5353999999</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>487196.5353999999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>480160.3967999999</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>486365.4983999999</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>365062.8028999999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>365072.8028999999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>358932.3607999999</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>358932.3607999999</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>361432.3607999999</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>355987.2354999999</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>357811.3046999999</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>357811.3046999999</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>355811.3046999999</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>315243.1895999999</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>311767.3598999999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>311777.3598999999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-256953.7484</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-259237.3807</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-270966.6257</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-265387.3441</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-151367.3441</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-216580.8567</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-389044.7002</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-443854.7002</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -8503,14 +8503,10 @@
         <v>-915165.2208999998</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="J246" t="n">
-        <v>39.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
@@ -8540,839 +8536,697 @@
         <v>-915165.2208999998</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
         <v>39.2</v>
       </c>
-      <c r="J247" t="n">
+      <c r="C248" t="n">
         <v>39.2</v>
       </c>
-      <c r="K247" t="inlineStr">
+      <c r="D248" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E248" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="F248" t="n">
+        <v>9222.6088</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-915165.2208999998</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C249" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D249" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E249" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F249" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-915165.2208999998</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C250" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D250" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E250" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="F250" t="n">
+        <v>20621.0245</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-894544.1963999998</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C251" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D251" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E251" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F251" t="n">
+        <v>10</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-894544.1963999998</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C252" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D252" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E252" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F252" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-894544.1963999998</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="C253" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="D253" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="E253" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="F253" t="n">
+        <v>27660.3971</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-922204.5934999997</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C254" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D254" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E254" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F254" t="n">
+        <v>5500</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-916704.5934999997</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="J254" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C255" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D255" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E255" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-916704.5934999997</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="K255" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
         <v>39.2</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C256" t="n">
         <v>39.2</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D256" t="n">
         <v>39.2</v>
       </c>
-      <c r="E248" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="F248" t="n">
-        <v>9222.6088</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-915165.2208999998</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
+      <c r="E256" t="n">
         <v>39.2</v>
       </c>
-      <c r="J248" t="n">
+      <c r="F256" t="n">
+        <v>25133.1436</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-916704.5934999997</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
         <v>39.2</v>
       </c>
-      <c r="K248" t="inlineStr">
+      <c r="C257" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D257" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E257" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F257" t="n">
+        <v>41000</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-875704.5934999997</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C258" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D258" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E258" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F258" t="n">
+        <v>500</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-875704.5934999997</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C259" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D259" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E259" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-875704.5934999997</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C260" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D260" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E260" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F260" t="n">
+        <v>13600</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-875704.5934999997</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C261" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D261" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E261" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F261" t="n">
+        <v>890.5852417302799</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-875704.5934999997</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C262" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D262" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E262" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F262" t="n">
+        <v>35</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-875704.5934999997</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C263" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D263" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E263" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F263" t="n">
+        <v>11400</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-875704.5934999997</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C264" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D264" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E264" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-875704.5934999997</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C265" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D265" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E265" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F265" t="n">
+        <v>4305.6997</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-875704.5934999997</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C266" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D266" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E266" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F266" t="n">
+        <v>15505.6997</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-875704.5934999997</v>
+      </c>
+      <c r="H266" t="n">
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="J266" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C267" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D267" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="E267" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F267" t="n">
+        <v>16368.6275</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-859335.9659999998</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K267" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="C249" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="D249" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="E249" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="F249" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-915165.2208999998</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="J249" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="C250" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="D250" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E250" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="F250" t="n">
-        <v>20621.0245</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-894544.1963999998</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="J250" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="C251" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="D251" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E251" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="F251" t="n">
-        <v>10</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-894544.1963999998</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="J251" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="C252" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="D252" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E252" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="F252" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-894544.1963999998</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="J252" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="C253" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="D253" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="E253" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="F253" t="n">
-        <v>27660.3971</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-922204.5934999997</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="J253" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="C254" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="D254" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E254" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="F254" t="n">
-        <v>5500</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-916704.5934999997</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="J254" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="C255" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="D255" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="E255" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="F255" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-916704.5934999997</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="J255" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="C256" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="D256" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="E256" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="F256" t="n">
-        <v>25133.1436</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-916704.5934999997</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="J256" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="C257" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="D257" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E257" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="F257" t="n">
-        <v>41000</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-875704.5934999997</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="J257" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="C258" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="D258" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E258" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="F258" t="n">
-        <v>500</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-875704.5934999997</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="J258" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="C259" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="D259" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E259" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="F259" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-875704.5934999997</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="J259" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="C260" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="D260" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E260" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="F260" t="n">
-        <v>13600</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-875704.5934999997</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="J260" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="C261" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="D261" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E261" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="F261" t="n">
-        <v>890.5852417302799</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-875704.5934999997</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="J261" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="C262" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="D262" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E262" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="F262" t="n">
-        <v>35</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-875704.5934999997</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="J262" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="C263" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="D263" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E263" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="F263" t="n">
-        <v>11400</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-875704.5934999997</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="J263" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="C264" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="D264" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E264" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="F264" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-875704.5934999997</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="J264" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="C265" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="D265" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E265" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="F265" t="n">
-        <v>4305.6997</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-875704.5934999997</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="J265" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="C266" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="D266" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E266" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="F266" t="n">
-        <v>15505.6997</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-875704.5934999997</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="J266" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="C267" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="D267" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="E267" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="F267" t="n">
-        <v>16368.6275</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-859335.9659999998</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="J267" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9401,13 +9255,11 @@
         <v>-862356.6190999998</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>39.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9442,13 +9294,11 @@
         <v>-862356.6190999998</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>39.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9489,7 +9339,7 @@
         <v>39.2</v>
       </c>
       <c r="J270" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9524,13 +9374,11 @@
         <v>-863477.7571999998</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>39.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9565,13 +9413,11 @@
         <v>-863477.7571999998</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>39.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9612,7 +9458,7 @@
         <v>39.1</v>
       </c>
       <c r="J273" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9653,7 +9499,7 @@
         <v>39.2</v>
       </c>
       <c r="J274" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9694,7 +9540,7 @@
         <v>39.1</v>
       </c>
       <c r="J275" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9735,7 +9581,7 @@
         <v>39.1</v>
       </c>
       <c r="J276" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9776,7 +9622,7 @@
         <v>39.1</v>
       </c>
       <c r="J277" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9817,7 +9663,7 @@
         <v>39.1</v>
       </c>
       <c r="J278" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9858,7 +9704,7 @@
         <v>39.1</v>
       </c>
       <c r="J279" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9899,7 +9745,7 @@
         <v>39.1</v>
       </c>
       <c r="J280" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -9940,7 +9786,7 @@
         <v>39.1</v>
       </c>
       <c r="J281" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -9981,7 +9827,7 @@
         <v>39.1</v>
       </c>
       <c r="J282" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10022,7 +9868,7 @@
         <v>39.1</v>
       </c>
       <c r="J283" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10063,7 +9909,7 @@
         <v>39.4</v>
       </c>
       <c r="J284" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10104,7 +9950,7 @@
         <v>39.1</v>
       </c>
       <c r="J285" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10145,7 +9991,7 @@
         <v>39.1</v>
       </c>
       <c r="J286" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10186,7 +10032,7 @@
         <v>39.1</v>
       </c>
       <c r="J287" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10221,13 +10067,11 @@
         <v>-785638.3333999998</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>39.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10262,13 +10106,11 @@
         <v>-785602.1042999998</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>39.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10303,13 +10145,11 @@
         <v>-786581.7845999998</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>39.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10344,13 +10184,11 @@
         <v>-786581.7845999998</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>39.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10385,13 +10223,11 @@
         <v>-807979.7158999998</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>39.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10426,13 +10262,11 @@
         <v>-542128.4949999999</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10471,7 +10305,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10506,13 +10340,11 @@
         <v>-559528.4949999999</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>39.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10547,13 +10379,11 @@
         <v>-559028.4949999999</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10588,13 +10418,11 @@
         <v>-517068.3868999999</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>39.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10629,13 +10457,11 @@
         <v>-517068.3868999999</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>39.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10670,13 +10496,11 @@
         <v>-517029.8899999998</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>39.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10711,13 +10535,11 @@
         <v>-518265.7498999998</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>39.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10752,13 +10574,11 @@
         <v>-518265.7498999998</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>39.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10793,13 +10613,11 @@
         <v>-518265.7498999998</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>39.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10834,13 +10652,11 @@
         <v>-394751.8132747473</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>39.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10875,13 +10691,11 @@
         <v>-370426.4261747474</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>39.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10920,7 +10734,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10959,7 +10773,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10998,7 +10812,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11037,7 +10851,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11076,7 +10890,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11115,7 +10929,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11154,7 +10968,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11189,13 +11003,11 @@
         <v>-388697.6084747473</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>39.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11234,7 +11046,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11273,7 +11085,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11312,7 +11124,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11347,13 +11159,11 @@
         <v>-388697.6084747473</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>39.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11392,7 +11202,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11427,13 +11237,11 @@
         <v>-385697.6084747473</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>39.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11472,7 +11280,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11511,7 +11319,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11550,7 +11358,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11589,7 +11397,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11628,7 +11436,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11667,7 +11475,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11706,7 +11514,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11745,7 +11553,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11784,7 +11592,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11823,7 +11631,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11862,7 +11670,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11901,7 +11709,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11940,7 +11748,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11979,7 +11787,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12018,7 +11826,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12057,7 +11865,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12096,7 +11904,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12135,7 +11943,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12174,7 +11982,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12213,7 +12021,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12252,7 +12060,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12291,7 +12099,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12330,7 +12138,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12369,7 +12177,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12408,7 +12216,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12447,7 +12255,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12486,7 +12294,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12525,7 +12333,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12564,7 +12372,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12603,7 +12411,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12642,7 +12450,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12681,7 +12489,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12720,7 +12528,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12759,7 +12567,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12798,7 +12606,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12837,7 +12645,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12876,7 +12684,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12915,7 +12723,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12954,7 +12762,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12993,7 +12801,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -13032,7 +12840,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -13071,7 +12879,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -13110,7 +12918,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -13149,7 +12957,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -13188,7 +12996,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -13227,7 +13035,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -13266,7 +13074,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13305,7 +13113,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13344,7 +13152,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13383,7 +13191,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13422,7 +13230,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13461,7 +13269,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13500,7 +13308,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13539,7 +13347,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13578,7 +13386,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13617,7 +13425,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13656,7 +13464,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13695,7 +13503,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13734,7 +13542,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13773,7 +13581,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13812,7 +13620,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13851,7 +13659,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13890,7 +13698,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13929,7 +13737,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13968,7 +13776,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -14007,7 +13815,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -14046,7 +13854,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -14085,7 +13893,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -14124,7 +13932,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -14163,7 +13971,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -14202,7 +14010,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -14241,7 +14049,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -14280,7 +14088,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -14319,7 +14127,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -14358,7 +14166,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -14397,7 +14205,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -14436,7 +14244,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -14475,7 +14283,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -14514,7 +14322,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14553,7 +14361,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -14592,7 +14400,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -14631,7 +14439,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -14670,7 +14478,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14709,7 +14517,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14748,7 +14556,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14787,7 +14595,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14826,7 +14634,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14865,7 +14673,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14904,7 +14712,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14943,7 +14751,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14982,7 +14790,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -15021,7 +14829,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -15060,7 +14868,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -15099,7 +14907,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -15138,7 +14946,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -15173,19 +14981,19 @@
         <v>-63749.81146735094</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L414" t="n">
-        <v>1</v>
+        <v>1.048435114503817</v>
       </c>
       <c r="M414" t="inlineStr"/>
     </row>
@@ -15212,17 +15020,11 @@
         <v>-63749.81146735094</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15251,17 +15053,11 @@
         <v>-63749.81146735094</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15290,17 +15086,11 @@
         <v>-63749.81146735094</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15329,17 +15119,11 @@
         <v>-52949.81146735094</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15368,17 +15152,11 @@
         <v>-63391.91166735094</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15407,17 +15185,11 @@
         <v>-91254.44046735094</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15446,17 +15218,11 @@
         <v>-91244.44046735094</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15485,17 +15251,11 @@
         <v>-91244.44046735094</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15524,17 +15284,11 @@
         <v>-93503.78166735094</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15566,14 +15320,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15605,14 +15353,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15644,14 +15386,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15683,14 +15419,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15722,14 +15452,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15761,14 +15485,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15797,17 +15515,11 @@
         <v>-135763.5477673509</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15839,14 +15551,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15878,14 +15584,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15917,14 +15617,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15953,17 +15647,11 @@
         <v>-83774.12316735093</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15992,17 +15680,11 @@
         <v>4993.528632649075</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16031,17 +15713,11 @@
         <v>-6051.962967350924</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16070,17 +15746,11 @@
         <v>-6051.962967350924</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16109,17 +15779,11 @@
         <v>-60657.60136735093</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16148,17 +15812,11 @@
         <v>1020.190032649072</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16187,17 +15845,11 @@
         <v>1020.190032649072</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16226,17 +15878,11 @@
         <v>970.1900326490722</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16265,17 +15911,11 @@
         <v>3970.190032649072</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16304,17 +15944,11 @@
         <v>3947.273432649072</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16343,17 +15977,11 @@
         <v>42108.25883264907</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16385,14 +16013,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16424,14 +16046,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16463,14 +16079,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16502,14 +16112,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16541,14 +16145,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16580,14 +16178,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16619,14 +16211,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16658,14 +16244,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16697,14 +16277,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16736,14 +16310,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16775,14 +16343,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16814,14 +16376,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16853,14 +16409,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16892,14 +16442,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16931,14 +16475,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16970,14 +16508,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17009,14 +16541,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17048,14 +16574,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17087,14 +16607,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17126,14 +16640,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17165,14 +16673,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17204,14 +16706,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17243,14 +16739,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17282,14 +16772,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17321,14 +16805,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17360,14 +16838,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17399,14 +16871,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17438,14 +16904,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17477,14 +16937,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17516,14 +16970,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17555,14 +17003,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17594,14 +17036,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17633,14 +17069,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17672,14 +17102,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17711,14 +17135,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17750,14 +17168,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17789,14 +17201,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17828,14 +17234,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17867,14 +17267,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17906,14 +17300,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17945,14 +17333,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17984,14 +17366,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18023,14 +17399,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18062,14 +17432,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18101,14 +17465,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18140,14 +17498,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18179,14 +17531,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18218,14 +17564,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18257,14 +17597,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18296,14 +17630,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18335,14 +17663,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18374,14 +17696,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18413,14 +17729,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18452,14 +17762,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18491,14 +17795,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18530,14 +17828,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18569,14 +17861,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18608,14 +17894,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18647,14 +17927,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18686,14 +17960,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18725,14 +17993,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18764,14 +18026,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18803,14 +18059,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18842,14 +18092,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18881,14 +18125,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18917,19 +18155,13 @@
         <v>352923.5607999614</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
-        <v>1.046020408163265</v>
+        <v>1</v>
       </c>
       <c r="M510" t="inlineStr"/>
     </row>
@@ -18956,7 +18188,7 @@
         <v>352953.5607999614</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18989,7 +18221,7 @@
         <v>352953.5607999614</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19022,7 +18254,7 @@
         <v>351563.3118999614</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19055,7 +18287,7 @@
         <v>351809.0775999614</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19088,7 +18320,7 @@
         <v>351809.0775999614</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19121,7 +18353,7 @@
         <v>350809.0775999614</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19154,7 +18386,7 @@
         <v>446727.1812999614</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19187,7 +18419,7 @@
         <v>429824.4880999614</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19220,7 +18452,7 @@
         <v>429824.4880999614</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19253,7 +18485,7 @@
         <v>387095.0346999614</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19286,7 +18518,7 @@
         <v>387095.0346999614</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19319,7 +18551,7 @@
         <v>553762.2806999615</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19352,7 +18584,7 @@
         <v>542552.2806999615</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19385,7 +18617,7 @@
         <v>542562.2806999615</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19418,7 +18650,7 @@
         <v>534126.9211999614</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19451,7 +18683,7 @@
         <v>411221.5811999615</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19484,7 +18716,7 @@
         <v>417706.4374999615</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19517,7 +18749,7 @@
         <v>354233.4871999614</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19550,7 +18782,7 @@
         <v>354233.4871999614</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19583,7 +18815,7 @@
         <v>342124.1952999614</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19616,7 +18848,7 @@
         <v>342124.1952999614</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19649,7 +18881,7 @@
         <v>325766.1952999614</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19682,7 +18914,7 @@
         <v>325766.1952999614</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19715,7 +18947,7 @@
         <v>325766.1952999614</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19748,7 +18980,7 @@
         <v>384597.1487999614</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19781,7 +19013,7 @@
         <v>384607.1487999614</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19814,7 +19046,7 @@
         <v>522481.0641999614</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19847,7 +19079,7 @@
         <v>522481.0641999614</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19880,7 +19112,7 @@
         <v>522224.1244999614</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19913,7 +19145,7 @@
         <v>522224.1244999614</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19946,7 +19178,7 @@
         <v>555817.6958999614</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19979,7 +19211,7 @@
         <v>555817.6958999614</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20507,7 +19739,7 @@
         <v>491277.0369475805</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20540,7 +19772,7 @@
         <v>588524.3654856419</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20573,7 +19805,7 @@
         <v>588524.3654856419</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20606,7 +19838,7 @@
         <v>646585.6287856419</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20639,7 +19871,7 @@
         <v>645477.5459856419</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20672,7 +19904,7 @@
         <v>637400.2144856419</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20705,7 +19937,7 @@
         <v>637400.2144856419</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20738,7 +19970,7 @@
         <v>637400.2144856419</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20771,7 +20003,7 @@
         <v>641339.6798856419</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20804,7 +20036,7 @@
         <v>590634.395585642</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20815,6 +20047,6 @@
       <c r="M567" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-16 BackTest LAMB.xlsx
@@ -3751,7 +3751,7 @@
         <v>533874.2169999999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>533874.2169999999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>496621.8817</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>573883.6385999999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>573883.6385999999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>562919.6508999999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>562919.6508999999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>566919.6508999999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>566919.6508999999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>566919.6508999999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>566919.6508999999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>566919.6508999999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>578329.6508999999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>578329.6508999999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>577011.5907999999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>504772.5377999999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>504782.5377999999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>503925.5533999999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>487196.5353999999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>487196.5353999999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>480160.3967999999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>486365.4983999999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>365062.8028999999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>365072.8028999999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>358932.3607999999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>358932.3607999999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>355987.2354999999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>357811.3046999999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>357811.3046999999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>355811.3046999999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>315243.1895999999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -8767,14 +8767,10 @@
         <v>-916704.5934999997</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="J254" t="n">
-        <v>38.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
@@ -8807,14 +8803,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8846,14 +8836,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9179,14 +9163,10 @@
         <v>-875704.5934999997</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="J266" t="n">
-        <v>39.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
@@ -9219,14 +9199,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9258,14 +9232,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9297,14 +9265,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9339,13 +9301,9 @@
         <v>39.2</v>
       </c>
       <c r="J270" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>39.2</v>
+      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9374,15 +9332,17 @@
         <v>-863477.7571999998</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>39.2</v>
+      </c>
       <c r="J271" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L271" t="n">
@@ -9413,11 +9373,13 @@
         <v>-863477.7571999998</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>39.1</v>
+      </c>
       <c r="J272" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9458,7 +9420,7 @@
         <v>39.1</v>
       </c>
       <c r="J273" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9499,7 +9461,7 @@
         <v>39.2</v>
       </c>
       <c r="J274" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9540,7 +9502,7 @@
         <v>39.1</v>
       </c>
       <c r="J275" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9581,7 +9543,7 @@
         <v>39.1</v>
       </c>
       <c r="J276" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9622,7 +9584,7 @@
         <v>39.1</v>
       </c>
       <c r="J277" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9663,7 +9625,7 @@
         <v>39.1</v>
       </c>
       <c r="J278" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9704,7 +9666,7 @@
         <v>39.1</v>
       </c>
       <c r="J279" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9745,7 +9707,7 @@
         <v>39.1</v>
       </c>
       <c r="J280" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -9786,7 +9748,7 @@
         <v>39.1</v>
       </c>
       <c r="J281" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -9827,7 +9789,7 @@
         <v>39.1</v>
       </c>
       <c r="J282" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -9868,7 +9830,7 @@
         <v>39.1</v>
       </c>
       <c r="J283" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -9909,7 +9871,7 @@
         <v>39.4</v>
       </c>
       <c r="J284" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -9950,7 +9912,7 @@
         <v>39.1</v>
       </c>
       <c r="J285" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -9991,7 +9953,7 @@
         <v>39.1</v>
       </c>
       <c r="J286" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10032,7 +9994,7 @@
         <v>39.1</v>
       </c>
       <c r="J287" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10067,11 +10029,13 @@
         <v>-785638.3333999998</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>39.6</v>
+      </c>
       <c r="J288" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10106,11 +10070,13 @@
         <v>-785602.1042999998</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>39.5</v>
+      </c>
       <c r="J289" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10145,11 +10111,13 @@
         <v>-786581.7845999998</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>39.6</v>
+      </c>
       <c r="J290" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10184,11 +10152,13 @@
         <v>-786581.7845999998</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>39.2</v>
+      </c>
       <c r="J291" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10223,11 +10193,13 @@
         <v>-807979.7158999998</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>39.2</v>
+      </c>
       <c r="J292" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10262,11 +10234,13 @@
         <v>-542128.4949999999</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>39</v>
+      </c>
       <c r="J293" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10305,7 +10279,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10344,7 +10318,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10383,7 +10357,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10422,7 +10396,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10461,7 +10435,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10496,11 +10470,13 @@
         <v>-517029.8899999998</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>39.3</v>
+      </c>
       <c r="J299" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10539,7 +10515,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10578,7 +10554,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10617,7 +10593,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10656,7 +10632,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10695,7 +10671,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10734,7 +10710,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10773,7 +10749,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10812,7 +10788,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10851,7 +10827,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10890,7 +10866,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -10929,7 +10905,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -10968,7 +10944,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11007,7 +10983,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11046,7 +11022,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11085,7 +11061,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11124,7 +11100,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11163,7 +11139,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11202,7 +11178,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11241,7 +11217,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11280,7 +11256,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11319,7 +11295,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11358,7 +11334,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11397,7 +11373,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11436,7 +11412,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11475,7 +11451,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11514,7 +11490,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11553,7 +11529,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11592,7 +11568,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11631,7 +11607,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11670,7 +11646,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11709,7 +11685,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11748,7 +11724,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11787,7 +11763,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11826,7 +11802,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11865,7 +11841,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -11904,7 +11880,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -11943,7 +11919,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -11982,7 +11958,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12021,7 +11997,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12060,7 +12036,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12099,7 +12075,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12138,7 +12114,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12177,7 +12153,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12216,7 +12192,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12255,7 +12231,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12294,7 +12270,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12333,7 +12309,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12372,7 +12348,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12411,7 +12387,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12450,7 +12426,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12489,7 +12465,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12528,7 +12504,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12567,7 +12543,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12606,7 +12582,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12645,7 +12621,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12684,7 +12660,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12723,7 +12699,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12762,7 +12738,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12801,7 +12777,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12840,7 +12816,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -12879,7 +12855,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -12918,7 +12894,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -12957,7 +12933,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -12996,7 +12972,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -13035,7 +13011,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -13074,7 +13050,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13113,7 +13089,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13152,7 +13128,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13191,7 +13167,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13230,7 +13206,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13269,7 +13245,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13308,7 +13284,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13347,7 +13323,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13386,7 +13362,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13425,7 +13401,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13464,7 +13440,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13503,7 +13479,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13542,7 +13518,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13581,7 +13557,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13620,7 +13596,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13659,7 +13635,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13698,7 +13674,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13737,7 +13713,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13776,7 +13752,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13815,7 +13791,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13854,7 +13830,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13893,7 +13869,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13932,7 +13908,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13971,7 +13947,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -14010,7 +13986,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -14049,7 +14025,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -14088,7 +14064,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -14127,7 +14103,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -14166,7 +14142,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -14205,7 +14181,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -14244,7 +14220,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -14283,7 +14259,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -14322,7 +14298,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14361,7 +14337,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -14400,7 +14376,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -14439,7 +14415,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -14478,7 +14454,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14517,7 +14493,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14556,7 +14532,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14595,7 +14571,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14634,7 +14610,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14673,7 +14649,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14712,7 +14688,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14751,7 +14727,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14790,7 +14766,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14829,7 +14805,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14868,7 +14844,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14907,7 +14883,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14946,7 +14922,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14981,19 +14957,19 @@
         <v>-63749.81146735094</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L414" t="n">
-        <v>1.048435114503817</v>
+        <v>1</v>
       </c>
       <c r="M414" t="inlineStr"/>
     </row>
@@ -15020,11 +14996,17 @@
         <v>-63749.81146735094</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15053,11 +15035,17 @@
         <v>-63749.81146735094</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15086,11 +15074,17 @@
         <v>-63749.81146735094</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15119,11 +15113,17 @@
         <v>-52949.81146735094</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15152,11 +15152,17 @@
         <v>-63391.91166735094</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15185,11 +15191,17 @@
         <v>-91254.44046735094</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15218,11 +15230,17 @@
         <v>-91244.44046735094</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15251,11 +15269,17 @@
         <v>-91244.44046735094</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15284,11 +15308,17 @@
         <v>-93503.78166735094</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15320,8 +15350,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15353,8 +15389,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15386,8 +15428,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15419,8 +15467,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15452,8 +15506,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15485,8 +15545,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15515,11 +15581,17 @@
         <v>-135763.5477673509</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15551,8 +15623,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15584,8 +15662,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15617,8 +15701,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15647,11 +15737,17 @@
         <v>-83774.12316735093</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15680,11 +15776,17 @@
         <v>4993.528632649075</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15713,11 +15815,17 @@
         <v>-6051.962967350924</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15746,11 +15854,17 @@
         <v>-6051.962967350924</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15779,11 +15893,17 @@
         <v>-60657.60136735093</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15812,11 +15932,17 @@
         <v>1020.190032649072</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15845,11 +15971,17 @@
         <v>1020.190032649072</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15878,11 +16010,17 @@
         <v>970.1900326490722</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15911,11 +16049,17 @@
         <v>3970.190032649072</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15944,11 +16088,17 @@
         <v>3947.273432649072</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15977,11 +16127,17 @@
         <v>42108.25883264907</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16013,8 +16169,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16046,8 +16208,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16079,8 +16247,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16112,8 +16286,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16145,8 +16325,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16178,8 +16364,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16211,8 +16403,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16244,8 +16442,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16277,8 +16481,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16310,8 +16520,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16343,8 +16559,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16376,8 +16598,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16409,8 +16637,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16442,8 +16676,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16475,8 +16715,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16508,8 +16754,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16541,8 +16793,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16574,8 +16832,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16607,8 +16871,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16640,8 +16910,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16673,8 +16949,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16706,8 +16988,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16739,8 +17027,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16772,8 +17066,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16805,8 +17105,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16838,8 +17144,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16871,8 +17183,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16904,8 +17222,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16937,8 +17261,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16970,8 +17300,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17003,8 +17339,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17036,8 +17378,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17069,8 +17417,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17102,8 +17456,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17135,8 +17495,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17168,8 +17534,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17201,8 +17573,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17234,8 +17612,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17267,8 +17651,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17300,8 +17690,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17333,8 +17729,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17366,8 +17768,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17399,8 +17807,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17432,8 +17846,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17465,8 +17885,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17498,8 +17924,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17531,8 +17963,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17564,8 +18002,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17597,8 +18041,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17630,8 +18080,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17663,8 +18119,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17696,8 +18158,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17729,8 +18197,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17762,8 +18236,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17795,8 +18275,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17828,8 +18314,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17861,8 +18353,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17894,8 +18392,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17927,8 +18431,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17960,8 +18470,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17993,8 +18509,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18026,8 +18548,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18059,8 +18587,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18092,8 +18626,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18125,8 +18665,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18158,8 +18704,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18188,15 +18740,23 @@
         <v>352953.5607999614</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L511" t="n">
-        <v>1</v>
-      </c>
-      <c r="M511" t="inlineStr"/>
+        <v>1.063877551020408</v>
+      </c>
+      <c r="M511" t="n">
+        <v>1.09020618556701</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -18221,7 +18781,7 @@
         <v>352953.5607999614</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18254,7 +18814,7 @@
         <v>351563.3118999614</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18287,7 +18847,7 @@
         <v>351809.0775999614</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18320,7 +18880,7 @@
         <v>351809.0775999614</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18353,7 +18913,7 @@
         <v>350809.0775999614</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18386,7 +18946,7 @@
         <v>446727.1812999614</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18419,7 +18979,7 @@
         <v>429824.4880999614</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18452,7 +19012,7 @@
         <v>429824.4880999614</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18485,7 +19045,7 @@
         <v>387095.0346999614</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18518,7 +19078,7 @@
         <v>387095.0346999614</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18584,7 +19144,7 @@
         <v>542552.2806999615</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18650,7 +19210,7 @@
         <v>534126.9211999614</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18683,7 +19243,7 @@
         <v>411221.5811999615</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19343,7 +19903,7 @@
         <v>488429.4056999614</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19376,7 +19936,7 @@
         <v>488429.4056999614</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19805,7 +20365,7 @@
         <v>588524.3654856419</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19838,7 +20398,7 @@
         <v>646585.6287856419</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19871,7 +20431,7 @@
         <v>645477.5459856419</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19904,7 +20464,7 @@
         <v>637400.2144856419</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19937,7 +20497,7 @@
         <v>637400.2144856419</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19970,7 +20530,7 @@
         <v>637400.2144856419</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20003,7 +20563,7 @@
         <v>641339.6798856419</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20036,7 +20596,7 @@
         <v>590634.395585642</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
